--- a/Clinical Goals.xlsx
+++ b/Clinical Goals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="995" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="995" firstSheet="20" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="How to Use" sheetId="36" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="560">
   <si>
     <t>ROI</t>
   </si>
@@ -1730,6 +1730,9 @@
   </si>
   <si>
     <t>CaudaEquina_PRV05</t>
+  </si>
+  <si>
+    <t>If boosting to 54 Gy</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2980,6 +2983,8 @@
     <xf numFmtId="0" fontId="2" fillId="85" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="75" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3012,6 +3017,30 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3044,30 +3073,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="54" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3112,22 +3133,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="50" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="55" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3268,10 +3273,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="60" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="96" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3280,6 +3281,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="97" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3813,7 +3818,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -3824,7 +3829,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="149" t="s">
         <v>271</v>
       </c>
@@ -3833,7 +3838,7 @@
       <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="331" t="s">
+      <c r="A4" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -3844,7 +3849,7 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="332"/>
+      <c r="A5" s="334"/>
       <c r="B5" s="18" t="s">
         <v>249</v>
       </c>
@@ -3853,7 +3858,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="332"/>
+      <c r="A6" s="334"/>
       <c r="B6" s="18" t="s">
         <v>273</v>
       </c>
@@ -3862,7 +3867,7 @@
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="332"/>
+      <c r="A7" s="334"/>
       <c r="B7" s="18" t="s">
         <v>250</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="332"/>
+      <c r="A8" s="334"/>
       <c r="B8" s="18" t="s">
         <v>251</v>
       </c>
@@ -3902,7 +3907,7 @@
       <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="329" t="s">
+      <c r="A11" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -3913,7 +3918,7 @@
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="330"/>
+      <c r="A12" s="332"/>
       <c r="B12" s="19" t="s">
         <v>266</v>
       </c>
@@ -3922,7 +3927,7 @@
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="330"/>
+      <c r="A13" s="332"/>
       <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
@@ -3931,7 +3936,7 @@
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="330"/>
+      <c r="A14" s="332"/>
       <c r="B14" s="19" t="s">
         <v>242</v>
       </c>
@@ -3940,7 +3945,7 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="330"/>
+      <c r="A15" s="332"/>
       <c r="B15" s="19" t="s">
         <v>267</v>
       </c>
@@ -3994,7 +3999,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -4005,7 +4010,7 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="358"/>
+      <c r="A3" s="344"/>
       <c r="B3" s="42" t="s">
         <v>240</v>
       </c>
@@ -4014,7 +4019,7 @@
       <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="358"/>
+      <c r="A4" s="344"/>
       <c r="B4" s="42" t="s">
         <v>241</v>
       </c>
@@ -4023,7 +4028,7 @@
       <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="358"/>
+      <c r="A5" s="344"/>
       <c r="B5" s="42" t="s">
         <v>242</v>
       </c>
@@ -4032,7 +4037,7 @@
       <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="351" t="s">
+      <c r="A6" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="53" t="s">
@@ -4043,7 +4048,7 @@
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="352"/>
+      <c r="A7" s="338"/>
       <c r="B7" s="53" t="s">
         <v>275</v>
       </c>
@@ -4052,7 +4057,7 @@
       <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="352"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="53" t="s">
         <v>276</v>
       </c>
@@ -4061,7 +4066,7 @@
       <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="352"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="53" t="s">
         <v>277</v>
       </c>
@@ -4070,7 +4075,7 @@
       <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="396" t="s">
+      <c r="A10" s="398" t="s">
         <v>278</v>
       </c>
       <c r="B10" s="150" t="s">
@@ -4083,7 +4088,7 @@
       <c r="E10" s="150"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="397"/>
+      <c r="A11" s="399"/>
       <c r="B11" s="150" t="s">
         <v>89</v>
       </c>
@@ -4094,7 +4099,7 @@
       <c r="E11" s="150"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="397"/>
+      <c r="A12" s="399"/>
       <c r="B12" s="150" t="s">
         <v>280</v>
       </c>
@@ -4103,7 +4108,7 @@
       <c r="E12" s="150"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="397"/>
+      <c r="A13" s="399"/>
       <c r="B13" s="150" t="s">
         <v>281</v>
       </c>
@@ -4114,7 +4119,7 @@
       <c r="E13" s="150"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="397"/>
+      <c r="A14" s="399"/>
       <c r="B14" s="150" t="s">
         <v>282</v>
       </c>
@@ -4125,7 +4130,7 @@
       <c r="E14" s="150"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="373" t="s">
+      <c r="A15" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -4138,7 +4143,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="374"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
@@ -4149,7 +4154,7 @@
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="374"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="17" t="s">
         <v>283</v>
       </c>
@@ -4206,7 +4211,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="400" t="s">
+      <c r="A2" s="402" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="151" t="s">
@@ -4221,7 +4226,7 @@
       <c r="E2" s="151"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="401"/>
+      <c r="A3" s="403"/>
       <c r="B3" s="151" t="s">
         <v>211</v>
       </c>
@@ -4234,7 +4239,7 @@
       <c r="E3" s="151"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="401"/>
+      <c r="A4" s="403"/>
       <c r="B4" s="151" t="s">
         <v>286</v>
       </c>
@@ -4292,7 +4297,7 @@
       <c r="E7" s="157"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="357" t="s">
+      <c r="A8" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -4307,7 +4312,7 @@
       <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="358"/>
+      <c r="A9" s="344"/>
       <c r="B9" s="42" t="s">
         <v>218</v>
       </c>
@@ -4320,7 +4325,7 @@
       <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="379" t="s">
+      <c r="A10" s="389" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="99" t="s">
@@ -4335,7 +4340,7 @@
       <c r="E10" s="99"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="380"/>
+      <c r="A11" s="390"/>
       <c r="B11" s="99" t="s">
         <v>220</v>
       </c>
@@ -4348,7 +4353,7 @@
       <c r="E11" s="99"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="351" t="s">
+      <c r="A12" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="53" t="s">
@@ -4363,7 +4368,7 @@
       <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="352"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="53" t="s">
         <v>221</v>
       </c>
@@ -4391,7 +4396,7 @@
       <c r="E14" s="159"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="373" t="s">
+      <c r="A15" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -4406,7 +4411,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="374"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="17" t="s">
         <v>233</v>
       </c>
@@ -4419,7 +4424,7 @@
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="374"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="17" t="s">
         <v>234</v>
       </c>
@@ -4432,7 +4437,7 @@
       <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="374"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="17" t="s">
         <v>294</v>
       </c>
@@ -4445,7 +4450,7 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="374"/>
+      <c r="A19" s="384"/>
       <c r="B19" s="17" t="s">
         <v>295</v>
       </c>
@@ -4458,7 +4463,7 @@
       <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="398" t="s">
+      <c r="A20" s="400" t="s">
         <v>296</v>
       </c>
       <c r="B20" s="161" t="s">
@@ -4473,7 +4478,7 @@
       <c r="E20" s="161"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="399"/>
+      <c r="A21" s="401"/>
       <c r="B21" s="161" t="s">
         <v>237</v>
       </c>
@@ -4505,7 +4510,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,7 +4540,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="363" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="89" t="s">
@@ -4546,7 +4551,7 @@
       <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="384"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="89" t="s">
         <v>297</v>
       </c>
@@ -4555,7 +4560,7 @@
       <c r="E3" s="89"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="384"/>
+      <c r="A4" s="364"/>
       <c r="B4" s="89" t="s">
         <v>249</v>
       </c>
@@ -4564,7 +4569,7 @@
       <c r="E4" s="89"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="384"/>
+      <c r="A5" s="364"/>
       <c r="B5" s="89" t="s">
         <v>298</v>
       </c>
@@ -4575,7 +4580,7 @@
       <c r="E5" s="89"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="384"/>
+      <c r="A6" s="364"/>
       <c r="B6" s="89" t="s">
         <v>299</v>
       </c>
@@ -4584,7 +4589,7 @@
       <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="384"/>
+      <c r="A7" s="364"/>
       <c r="B7" s="89" t="s">
         <v>30</v>
       </c>
@@ -4595,7 +4600,7 @@
       <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="384"/>
+      <c r="A8" s="364"/>
       <c r="B8" s="89" t="s">
         <v>240</v>
       </c>
@@ -4604,7 +4609,7 @@
       <c r="E8" s="89"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="406" t="s">
         <v>300</v>
       </c>
       <c r="B9" s="163" t="s">
@@ -4617,7 +4622,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="407"/>
       <c r="B10" s="163" t="s">
         <v>303</v>
       </c>
@@ -4628,7 +4633,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="407"/>
       <c r="B11" s="163" t="s">
         <v>304</v>
       </c>
@@ -4639,7 +4644,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="393" t="s">
+      <c r="A12" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -4650,7 +4655,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="360"/>
+      <c r="A13" s="346"/>
       <c r="B13" s="22" t="s">
         <v>306</v>
       </c>
@@ -4659,7 +4664,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="360"/>
+      <c r="A14" s="346"/>
       <c r="B14" s="22" t="s">
         <v>307</v>
       </c>
@@ -4668,7 +4673,7 @@
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="360"/>
+      <c r="A15" s="346"/>
       <c r="B15" s="22" t="s">
         <v>16</v>
       </c>
@@ -4677,7 +4682,7 @@
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="339" t="s">
+      <c r="A16" s="353" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -4688,7 +4693,7 @@
       <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="340"/>
+      <c r="A17" s="354"/>
       <c r="B17" s="49" t="s">
         <v>308</v>
       </c>
@@ -4697,7 +4702,7 @@
       <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="340"/>
+      <c r="A18" s="354"/>
       <c r="B18" s="49" t="s">
         <v>16</v>
       </c>
@@ -4706,7 +4711,7 @@
       <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="340"/>
+      <c r="A19" s="354"/>
       <c r="B19" s="49" t="s">
         <v>309</v>
       </c>
@@ -4717,7 +4722,7 @@
       <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="340"/>
+      <c r="A20" s="354"/>
       <c r="B20" s="49" t="s">
         <v>310</v>
       </c>
@@ -4728,7 +4733,7 @@
       <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="340"/>
+      <c r="A21" s="354"/>
       <c r="B21" s="49" t="s">
         <v>311</v>
       </c>
@@ -4739,7 +4744,7 @@
       <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="340"/>
+      <c r="A22" s="354"/>
       <c r="B22" s="49" t="s">
         <v>312</v>
       </c>
@@ -4750,7 +4755,7 @@
       <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="340"/>
+      <c r="A23" s="354"/>
       <c r="B23" s="49" t="s">
         <v>313</v>
       </c>
@@ -4759,7 +4764,7 @@
       <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="340"/>
+      <c r="A24" s="354"/>
       <c r="B24" s="49" t="s">
         <v>30</v>
       </c>
@@ -4770,7 +4775,7 @@
       <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="402" t="s">
+      <c r="A25" s="404" t="s">
         <v>314</v>
       </c>
       <c r="B25" s="164" t="s">
@@ -4781,7 +4786,7 @@
       <c r="E25" s="164"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="403"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="164" t="s">
         <v>316</v>
       </c>
@@ -4790,7 +4795,7 @@
       <c r="E26" s="164"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="403"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="164" t="s">
         <v>317</v>
       </c>
@@ -4799,7 +4804,7 @@
       <c r="E27" s="164"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="406" t="s">
+      <c r="A28" s="408" t="s">
         <v>318</v>
       </c>
       <c r="B28" s="166" t="s">
@@ -4810,7 +4815,7 @@
       <c r="E28" s="166"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="407"/>
+      <c r="A29" s="409"/>
       <c r="B29" s="166" t="s">
         <v>299</v>
       </c>
@@ -4819,7 +4824,7 @@
       <c r="E29" s="166"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="407"/>
+      <c r="A30" s="409"/>
       <c r="B30" s="166" t="s">
         <v>30</v>
       </c>
@@ -4828,7 +4833,7 @@
       <c r="E30" s="166"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="367" t="s">
+      <c r="A31" s="377" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="79" t="s">
@@ -4841,7 +4846,7 @@
       <c r="E31" s="79"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="368"/>
+      <c r="A32" s="378"/>
       <c r="B32" s="79" t="s">
         <v>319</v>
       </c>
@@ -4852,7 +4857,7 @@
       <c r="E32" s="79"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="329" t="s">
+      <c r="A33" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -4863,7 +4868,7 @@
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="330"/>
+      <c r="A34" s="332"/>
       <c r="B34" s="19" t="s">
         <v>242</v>
       </c>
@@ -4872,7 +4877,7 @@
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="330"/>
+      <c r="A35" s="332"/>
       <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
@@ -4881,7 +4886,7 @@
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="330"/>
+      <c r="A36" s="332"/>
       <c r="B36" s="19" t="s">
         <v>320</v>
       </c>
@@ -4973,7 +4978,7 @@
       <c r="E4" s="304"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="329" t="s">
+      <c r="A5" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="302" t="s">
@@ -4984,7 +4989,7 @@
       <c r="E5" s="303"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="330"/>
+      <c r="A6" s="332"/>
       <c r="B6" s="302" t="s">
         <v>308</v>
       </c>
@@ -5036,7 +5041,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="167" t="s">
@@ -5047,7 +5052,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="167" t="s">
         <v>322</v>
       </c>
@@ -5056,7 +5061,7 @@
       <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="395"/>
+      <c r="A4" s="397"/>
       <c r="B4" s="167" t="s">
         <v>323</v>
       </c>
@@ -5065,7 +5070,7 @@
       <c r="E4" s="149"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="169" t="s">
@@ -5078,7 +5083,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="360"/>
+      <c r="A6" s="346"/>
       <c r="B6" s="169" t="s">
         <v>24</v>
       </c>
@@ -5089,7 +5094,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="351" t="s">
+      <c r="A7" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="170" t="s">
@@ -5102,7 +5107,7 @@
       <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="352"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="170" t="s">
         <v>326</v>
       </c>
@@ -5113,7 +5118,7 @@
       <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="352"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="170" t="s">
         <v>327</v>
       </c>
@@ -5124,7 +5129,7 @@
       <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="352"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="53" t="s">
         <v>312</v>
       </c>
@@ -5135,7 +5140,7 @@
       <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="352"/>
+      <c r="A11" s="338"/>
       <c r="B11" s="170" t="s">
         <v>328</v>
       </c>
@@ -5146,7 +5151,7 @@
       <c r="E11" s="53"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="352"/>
+      <c r="A12" s="338"/>
       <c r="B12" s="170" t="s">
         <v>329</v>
       </c>
@@ -5157,7 +5162,7 @@
       <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="352"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="170" t="s">
         <v>247</v>
       </c>
@@ -5168,7 +5173,7 @@
       <c r="E13" s="170"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="352"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="170" t="s">
         <v>89</v>
       </c>
@@ -5179,7 +5184,7 @@
       <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="381" t="s">
+      <c r="A15" s="391" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="171" t="s">
@@ -5192,7 +5197,7 @@
       <c r="E15" s="109"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="382"/>
+      <c r="A16" s="392"/>
       <c r="B16" s="171" t="s">
         <v>280</v>
       </c>
@@ -5203,7 +5208,7 @@
       <c r="E16" s="109"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="382"/>
+      <c r="A17" s="392"/>
       <c r="B17" s="171" t="s">
         <v>331</v>
       </c>
@@ -5214,7 +5219,7 @@
       <c r="E17" s="109"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="382"/>
+      <c r="A18" s="392"/>
       <c r="B18" s="171" t="s">
         <v>279</v>
       </c>
@@ -5225,7 +5230,7 @@
       <c r="E18" s="109"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="382"/>
+      <c r="A19" s="392"/>
       <c r="B19" s="171" t="s">
         <v>89</v>
       </c>
@@ -5236,7 +5241,7 @@
       <c r="E19" s="109"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="382"/>
+      <c r="A20" s="392"/>
       <c r="B20" s="171" t="s">
         <v>254</v>
       </c>
@@ -5247,7 +5252,7 @@
       <c r="E20" s="109"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="410" t="s">
+      <c r="A21" s="412" t="s">
         <v>332</v>
       </c>
       <c r="B21" s="172" t="s">
@@ -5260,7 +5265,7 @@
       <c r="E21" s="174"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="411"/>
+      <c r="A22" s="413"/>
       <c r="B22" s="172" t="s">
         <v>334</v>
       </c>
@@ -5271,7 +5276,7 @@
       <c r="E22" s="174"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="373" t="s">
+      <c r="A23" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="175" t="s">
@@ -5284,7 +5289,7 @@
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="374"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="175" t="s">
         <v>335</v>
       </c>
@@ -5295,7 +5300,7 @@
       <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="412" t="s">
+      <c r="A25" s="414" t="s">
         <v>336</v>
       </c>
       <c r="B25" s="177" t="s">
@@ -5308,7 +5313,7 @@
       <c r="E25" s="179"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="413"/>
+      <c r="A26" s="415"/>
       <c r="B26" s="177" t="s">
         <v>334</v>
       </c>
@@ -5343,7 +5348,7 @@
       <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="408" t="s">
+      <c r="A29" s="410" t="s">
         <v>340</v>
       </c>
       <c r="B29" s="185" t="s">
@@ -5356,7 +5361,7 @@
       <c r="E29" s="187"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="409"/>
+      <c r="A30" s="411"/>
       <c r="B30" s="185" t="s">
         <v>342</v>
       </c>
@@ -5418,7 +5423,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="418" t="s">
+      <c r="A2" s="420" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="261" t="s">
@@ -5429,7 +5434,7 @@
       <c r="E2" s="263"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="419"/>
+      <c r="A3" s="421"/>
       <c r="B3" s="261" t="s">
         <v>322</v>
       </c>
@@ -5438,7 +5443,7 @@
       <c r="E3" s="263"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="419"/>
+      <c r="A4" s="421"/>
       <c r="B4" s="261" t="s">
         <v>323</v>
       </c>
@@ -5447,7 +5452,7 @@
       <c r="E4" s="263"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="359" t="s">
+      <c r="A5" s="345" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="264" t="s">
@@ -5460,7 +5465,7 @@
       <c r="E5" s="266"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="420"/>
+      <c r="A6" s="422"/>
       <c r="B6" s="264" t="s">
         <v>24</v>
       </c>
@@ -5471,7 +5476,7 @@
       <c r="E6" s="266"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="421" t="s">
+      <c r="A7" s="423" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="267" t="s">
@@ -5484,7 +5489,7 @@
       <c r="E7" s="269"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="422"/>
+      <c r="A8" s="424"/>
       <c r="B8" s="267" t="s">
         <v>326</v>
       </c>
@@ -5495,7 +5500,7 @@
       <c r="E8" s="269"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="422"/>
+      <c r="A9" s="424"/>
       <c r="B9" s="267" t="s">
         <v>327</v>
       </c>
@@ -5506,7 +5511,7 @@
       <c r="E9" s="269"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="422"/>
+      <c r="A10" s="424"/>
       <c r="B10" s="269" t="s">
         <v>312</v>
       </c>
@@ -5517,7 +5522,7 @@
       <c r="E10" s="269"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="422"/>
+      <c r="A11" s="424"/>
       <c r="B11" s="267" t="s">
         <v>328</v>
       </c>
@@ -5528,7 +5533,7 @@
       <c r="E11" s="269"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="422"/>
+      <c r="A12" s="424"/>
       <c r="B12" s="267" t="s">
         <v>329</v>
       </c>
@@ -5539,7 +5544,7 @@
       <c r="E12" s="269"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="422"/>
+      <c r="A13" s="424"/>
       <c r="B13" s="267" t="s">
         <v>60</v>
       </c>
@@ -5550,7 +5555,7 @@
       <c r="E13" s="267"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="422"/>
+      <c r="A14" s="424"/>
       <c r="B14" s="267" t="s">
         <v>343</v>
       </c>
@@ -5561,7 +5566,7 @@
       <c r="E14" s="269"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="423" t="s">
+      <c r="A15" s="425" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="270" t="s">
@@ -5574,7 +5579,7 @@
       <c r="E15" s="272"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="424"/>
+      <c r="A16" s="426"/>
       <c r="B16" s="270" t="s">
         <v>280</v>
       </c>
@@ -5585,7 +5590,7 @@
       <c r="E16" s="272"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="424"/>
+      <c r="A17" s="426"/>
       <c r="B17" s="270" t="s">
         <v>331</v>
       </c>
@@ -5596,7 +5601,7 @@
       <c r="E17" s="272"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="424"/>
+      <c r="A18" s="426"/>
       <c r="B18" s="270" t="s">
         <v>279</v>
       </c>
@@ -5607,7 +5612,7 @@
       <c r="E18" s="272"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="424"/>
+      <c r="A19" s="426"/>
       <c r="B19" s="270" t="s">
         <v>89</v>
       </c>
@@ -5618,7 +5623,7 @@
       <c r="E19" s="272"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="424"/>
+      <c r="A20" s="426"/>
       <c r="B20" s="270" t="s">
         <v>254</v>
       </c>
@@ -5629,7 +5634,7 @@
       <c r="E20" s="272"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="425" t="s">
+      <c r="A21" s="427" t="s">
         <v>332</v>
       </c>
       <c r="B21" s="273" t="s">
@@ -5642,7 +5647,7 @@
       <c r="E21" s="275"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="426"/>
+      <c r="A22" s="428"/>
       <c r="B22" s="273" t="s">
         <v>334</v>
       </c>
@@ -5653,7 +5658,7 @@
       <c r="E22" s="275"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="427" t="s">
+      <c r="A23" s="429" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="276" t="s">
@@ -5666,7 +5671,7 @@
       <c r="E23" s="278"/>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="428"/>
+      <c r="A24" s="430"/>
       <c r="B24" s="276" t="s">
         <v>335</v>
       </c>
@@ -5677,7 +5682,7 @@
       <c r="E24" s="278"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="414" t="s">
+      <c r="A25" s="416" t="s">
         <v>336</v>
       </c>
       <c r="B25" s="279" t="s">
@@ -5690,7 +5695,7 @@
       <c r="E25" s="281"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="415"/>
+      <c r="A26" s="417"/>
       <c r="B26" s="279" t="s">
         <v>334</v>
       </c>
@@ -5725,7 +5730,7 @@
       <c r="E28" s="286"/>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="416" t="s">
+      <c r="A29" s="418" t="s">
         <v>340</v>
       </c>
       <c r="B29" s="289" t="s">
@@ -5738,7 +5743,7 @@
       <c r="E29" s="291"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="417"/>
+      <c r="A30" s="419"/>
       <c r="B30" s="289" t="s">
         <v>342</v>
       </c>
@@ -5800,7 +5805,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="393" t="s">
+      <c r="A2" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="169" t="s">
@@ -5811,7 +5816,7 @@
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="360"/>
+      <c r="A3" s="346"/>
       <c r="B3" s="169" t="s">
         <v>253</v>
       </c>
@@ -5820,7 +5825,7 @@
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="360"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="169" t="s">
         <v>344</v>
       </c>
@@ -5829,7 +5834,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="355" t="s">
+      <c r="A5" s="341" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="188" t="s">
@@ -5842,7 +5847,7 @@
       <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="356"/>
+      <c r="A6" s="342"/>
       <c r="B6" s="188" t="s">
         <v>16</v>
       </c>
@@ -5853,7 +5858,7 @@
       <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="333" t="s">
+      <c r="A7" s="347" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="184" t="s">
@@ -5864,7 +5869,7 @@
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="334"/>
+      <c r="A8" s="348"/>
       <c r="B8" s="184" t="s">
         <v>279</v>
       </c>
@@ -5873,7 +5878,7 @@
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="334"/>
+      <c r="A9" s="348"/>
       <c r="B9" s="184" t="s">
         <v>345</v>
       </c>
@@ -5915,7 +5920,7 @@
       <c r="E12" s="179"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="337" t="s">
+      <c r="A13" s="351" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="192" t="s">
@@ -5926,7 +5931,7 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="338"/>
+      <c r="A14" s="352"/>
       <c r="B14" s="192" t="s">
         <v>348</v>
       </c>
@@ -5994,7 +5999,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="393" t="s">
+      <c r="A2" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="169" t="s">
@@ -6005,7 +6010,7 @@
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="360"/>
+      <c r="A3" s="346"/>
       <c r="B3" s="169" t="s">
         <v>253</v>
       </c>
@@ -6014,7 +6019,7 @@
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="360"/>
+      <c r="A4" s="346"/>
       <c r="B4" s="169" t="s">
         <v>344</v>
       </c>
@@ -6023,7 +6028,7 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="355" t="s">
+      <c r="A5" s="341" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="188" t="s">
@@ -6036,7 +6041,7 @@
       <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="356"/>
+      <c r="A6" s="342"/>
       <c r="B6" s="188" t="s">
         <v>16</v>
       </c>
@@ -6047,7 +6052,7 @@
       <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="333" t="s">
+      <c r="A7" s="347" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="184" t="s">
@@ -6058,7 +6063,7 @@
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="334"/>
+      <c r="A8" s="348"/>
       <c r="B8" s="184" t="s">
         <v>279</v>
       </c>
@@ -6067,7 +6072,7 @@
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="334"/>
+      <c r="A9" s="348"/>
       <c r="B9" s="184" t="s">
         <v>345</v>
       </c>
@@ -6109,7 +6114,7 @@
       <c r="E12" s="179"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="337" t="s">
+      <c r="A13" s="351" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="192" t="s">
@@ -6122,7 +6127,7 @@
       <c r="E13" s="192"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="338"/>
+      <c r="A14" s="352"/>
       <c r="B14" s="192" t="s">
         <v>13</v>
       </c>
@@ -6133,7 +6138,7 @@
       <c r="E14" s="192"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="338"/>
+      <c r="A15" s="352"/>
       <c r="B15" s="192" t="s">
         <v>347</v>
       </c>
@@ -6142,7 +6147,7 @@
       <c r="E15" s="83"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
+      <c r="A16" s="352"/>
       <c r="B16" s="192" t="s">
         <v>348</v>
       </c>
@@ -6210,7 +6215,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -6221,7 +6226,7 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="332"/>
+      <c r="A3" s="334"/>
       <c r="B3" s="18" t="s">
         <v>249</v>
       </c>
@@ -6230,7 +6235,7 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="332"/>
+      <c r="A4" s="334"/>
       <c r="B4" s="18" t="s">
         <v>352</v>
       </c>
@@ -6239,7 +6244,7 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="332"/>
+      <c r="A5" s="334"/>
       <c r="B5" s="18" t="s">
         <v>298</v>
       </c>
@@ -6248,7 +6253,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="332"/>
+      <c r="A6" s="334"/>
       <c r="B6" s="18" t="s">
         <v>353</v>
       </c>
@@ -6281,7 +6286,7 @@
       <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="329" t="s">
+      <c r="A9" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -6292,7 +6297,7 @@
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="330"/>
+      <c r="A10" s="332"/>
       <c r="B10" s="19" t="s">
         <v>358</v>
       </c>
@@ -6301,7 +6306,7 @@
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="330"/>
+      <c r="A11" s="332"/>
       <c r="B11" s="19" t="s">
         <v>359</v>
       </c>
@@ -6310,7 +6315,7 @@
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="330"/>
+      <c r="A12" s="332"/>
       <c r="B12" s="19" t="s">
         <v>360</v>
       </c>
@@ -6363,7 +6368,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="323" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="294" t="s">
@@ -6376,7 +6381,7 @@
       <c r="E2" s="294"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="322"/>
+      <c r="A3" s="324"/>
       <c r="B3" s="294" t="s">
         <v>7</v>
       </c>
@@ -6387,7 +6392,7 @@
       <c r="E3" s="294"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="325" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="295" t="s">
@@ -6400,7 +6405,7 @@
       <c r="E4" s="295"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="324"/>
+      <c r="A5" s="326"/>
       <c r="B5" s="295" t="s">
         <v>7</v>
       </c>
@@ -6411,7 +6416,7 @@
       <c r="E5" s="295"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="325" t="s">
+      <c r="A6" s="327" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="296" t="s">
@@ -6422,7 +6427,7 @@
       <c r="E6" s="296"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="326"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="296" t="s">
         <v>11</v>
       </c>
@@ -6431,7 +6436,7 @@
       <c r="E7" s="296"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="327" t="s">
+      <c r="A8" s="329" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="297" t="s">
@@ -6444,7 +6449,7 @@
       <c r="E8" s="297"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="328"/>
+      <c r="A9" s="330"/>
       <c r="B9" s="297" t="s">
         <v>14</v>
       </c>
@@ -6494,7 +6499,7 @@
       <c r="E12" s="298"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="317" t="s">
+      <c r="A13" s="319" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="292" t="s">
@@ -6507,7 +6512,7 @@
       <c r="E13" s="292"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="318"/>
+      <c r="A14" s="320"/>
       <c r="B14" s="292" t="s">
         <v>21</v>
       </c>
@@ -6531,7 +6536,7 @@
       <c r="E15" s="301"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="319" t="s">
+      <c r="A16" s="321" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="293" t="s">
@@ -6544,7 +6549,7 @@
       <c r="E16" s="293"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="320"/>
+      <c r="A17" s="322"/>
       <c r="B17" s="293" t="s">
         <v>25</v>
       </c>
@@ -6571,10 +6576,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,7 +6588,7 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6604,7 +6609,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>361</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -6615,7 +6620,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="149" t="s">
         <v>363</v>
       </c>
@@ -6624,7 +6629,7 @@
       <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="396" t="s">
         <v>364</v>
       </c>
       <c r="B4" s="149" t="s">
@@ -6635,7 +6640,7 @@
       <c r="E4" s="149"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="395"/>
+      <c r="A5" s="397"/>
       <c r="B5" s="149" t="s">
         <v>366</v>
       </c>
@@ -6644,7 +6649,7 @@
       <c r="E5" s="149"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="395"/>
+      <c r="A6" s="397"/>
       <c r="B6" s="149" t="s">
         <v>367</v>
       </c>
@@ -6653,7 +6658,7 @@
       <c r="E6" s="149"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="404" t="s">
+      <c r="A7" s="406" t="s">
         <v>300</v>
       </c>
       <c r="B7" s="163" t="s">
@@ -6668,7 +6673,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="405"/>
+      <c r="A8" s="407"/>
       <c r="B8" s="196" t="s">
         <v>304</v>
       </c>
@@ -6679,7 +6684,7 @@
       <c r="E8" s="163"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="405"/>
+      <c r="A9" s="407"/>
       <c r="B9" s="196" t="s">
         <v>369</v>
       </c>
@@ -6690,7 +6695,7 @@
       <c r="E9" s="163"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="407"/>
       <c r="B10" s="196" t="s">
         <v>370</v>
       </c>
@@ -6701,7 +6706,7 @@
       <c r="E10" s="163"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="407"/>
       <c r="B11" s="196" t="s">
         <v>303</v>
       </c>
@@ -6712,7 +6717,7 @@
       <c r="E11" s="163"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
+      <c r="A12" s="407"/>
       <c r="B12" s="196" t="s">
         <v>308</v>
       </c>
@@ -6723,7 +6728,7 @@
       <c r="E12" s="163"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="331" t="s">
+      <c r="A13" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -6736,7 +6741,7 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="332"/>
+      <c r="A14" s="334"/>
       <c r="B14" s="197" t="s">
         <v>371</v>
       </c>
@@ -6747,7 +6752,7 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="332"/>
+      <c r="A15" s="334"/>
       <c r="B15" s="197" t="s">
         <v>274</v>
       </c>
@@ -6758,7 +6763,7 @@
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="393" t="s">
+      <c r="A16" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -6771,7 +6776,7 @@
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="360"/>
+      <c r="A17" s="346"/>
       <c r="B17" s="169" t="s">
         <v>344</v>
       </c>
@@ -6782,7 +6787,7 @@
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="360"/>
+      <c r="A18" s="346"/>
       <c r="B18" s="169" t="s">
         <v>373</v>
       </c>
@@ -6793,94 +6798,96 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="360"/>
+      <c r="A19" s="346"/>
       <c r="B19" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="317">
         <v>3</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="317"/>
+      <c r="E19" s="317"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="385" t="s">
+      <c r="A20" s="346"/>
+      <c r="B20" s="264" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" s="22">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="318" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="365" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B21" s="198" t="s">
         <v>374</v>
       </c>
-      <c r="C20" s="95">
+      <c r="C21" s="95">
         <v>3</v>
-      </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="386"/>
-      <c r="B21" s="198" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" s="95">
-        <v>2</v>
       </c>
       <c r="D21" s="95"/>
       <c r="E21" s="95"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="316" t="s">
+      <c r="A22" s="366"/>
+      <c r="B22" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="95">
+        <v>2</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="316" t="s">
         <v>558</v>
       </c>
-      <c r="B22" s="200" t="s">
+      <c r="B23" s="200" t="s">
         <v>376</v>
       </c>
-      <c r="C22" s="199">
+      <c r="C23" s="199">
         <v>3</v>
       </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="339" t="s">
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="201" t="s">
+      <c r="B24" s="201" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="49">
-        <v>2</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="340"/>
-      <c r="B24" s="201" t="s">
-        <v>345</v>
-      </c>
       <c r="C24" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="333" t="s">
+      <c r="A25" s="354"/>
+      <c r="B25" s="201" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="49">
+        <v>3</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="347" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="184" t="s">
+      <c r="B26" s="184" t="s">
         <v>378</v>
-      </c>
-      <c r="C25" s="57">
-        <v>2</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="334"/>
-      <c r="B26" s="184" t="s">
-        <v>256</v>
       </c>
       <c r="C26" s="57">
         <v>2</v>
@@ -6889,20 +6896,20 @@
       <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="334"/>
+      <c r="A27" s="348"/>
       <c r="B27" s="184" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="C27" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="334"/>
+      <c r="A28" s="348"/>
       <c r="B28" s="184" t="s">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="C28" s="57">
         <v>3</v>
@@ -6911,66 +6918,66 @@
       <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="329" t="s">
+      <c r="A29" s="348"/>
+      <c r="B29" s="184" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="57">
+        <v>3</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="331" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="202" t="s">
+      <c r="B30" s="202" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C30" s="19">
         <v>4</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="330"/>
-      <c r="B30" s="202" t="s">
-        <v>380</v>
-      </c>
-      <c r="C30" s="19">
-        <v>5</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="330"/>
+      <c r="A31" s="332"/>
       <c r="B31" s="202" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C31" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="330"/>
+      <c r="A32" s="332"/>
       <c r="B32" s="202" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C32" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="330"/>
+      <c r="A33" s="332"/>
       <c r="B33" s="202" t="s">
-        <v>267</v>
+        <v>382</v>
       </c>
       <c r="C33" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="330"/>
+      <c r="A34" s="332"/>
       <c r="B34" s="202" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C34" s="19">
         <v>1</v>
@@ -6979,9 +6986,9 @@
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="330"/>
+      <c r="A35" s="332"/>
       <c r="B35" s="202" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="C35" s="19">
         <v>1</v>
@@ -6990,9 +6997,9 @@
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="330"/>
+      <c r="A36" s="332"/>
       <c r="B36" s="202" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="C36" s="19">
         <v>1</v>
@@ -7001,9 +7008,9 @@
       <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="330"/>
+      <c r="A37" s="332"/>
       <c r="B37" s="202" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="19">
         <v>1</v>
@@ -7012,54 +7019,65 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="373" t="s">
+      <c r="A38" s="332"/>
+      <c r="B38" s="202" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="383" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="175" t="s">
+      <c r="B39" s="175" t="s">
         <v>374</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C39" s="17">
         <v>3</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="374"/>
-      <c r="B39" s="175" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" s="17">
-        <v>2</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179" t="s">
+      <c r="A40" s="384"/>
+      <c r="B40" s="175" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" s="17">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="179" t="s">
         <v>336</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B41" s="177" t="s">
         <v>376</v>
       </c>
-      <c r="C40" s="179">
+      <c r="C41" s="179">
         <v>3</v>
       </c>
-      <c r="D40" s="179"/>
-      <c r="E40" s="179"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
@@ -7102,7 +7120,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -7115,7 +7133,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="149" t="s">
         <v>384</v>
       </c>
@@ -7126,7 +7144,7 @@
       <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="395"/>
+      <c r="A4" s="397"/>
       <c r="B4" s="149" t="s">
         <v>385</v>
       </c>
@@ -7137,7 +7155,7 @@
       <c r="E4" s="149"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="395"/>
+      <c r="A5" s="397"/>
       <c r="B5" s="149" t="s">
         <v>386</v>
       </c>
@@ -7161,7 +7179,7 @@
       <c r="E6" s="91"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="435" t="s">
+      <c r="A7" s="437" t="s">
         <v>387</v>
       </c>
       <c r="B7" s="203" t="s">
@@ -7174,7 +7192,7 @@
       <c r="E7" s="203"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="436"/>
+      <c r="A8" s="438"/>
       <c r="B8" s="203" t="s">
         <v>389</v>
       </c>
@@ -7185,7 +7203,7 @@
       <c r="E8" s="203"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -7198,7 +7216,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="10" t="s">
         <v>391</v>
       </c>
@@ -7209,7 +7227,7 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="10" t="s">
         <v>392</v>
       </c>
@@ -7220,7 +7238,7 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
+      <c r="A12" s="368"/>
       <c r="B12" s="10" t="s">
         <v>393</v>
       </c>
@@ -7231,7 +7249,7 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
+      <c r="A13" s="368"/>
       <c r="B13" s="10" t="s">
         <v>394</v>
       </c>
@@ -7242,7 +7260,7 @@
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="368"/>
       <c r="B14" s="10" t="s">
         <v>238</v>
       </c>
@@ -7253,7 +7271,7 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="437" t="s">
+      <c r="A15" s="439" t="s">
         <v>395</v>
       </c>
       <c r="B15" s="204" t="s">
@@ -7266,7 +7284,7 @@
       <c r="E15" s="204"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="438"/>
+      <c r="A16" s="440"/>
       <c r="B16" s="204" t="s">
         <v>397</v>
       </c>
@@ -7277,7 +7295,7 @@
       <c r="E16" s="204"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="439" t="s">
+      <c r="A17" s="441" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -7290,7 +7308,7 @@
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="440"/>
+      <c r="A18" s="442"/>
       <c r="B18" s="36" t="s">
         <v>399</v>
       </c>
@@ -7301,7 +7319,7 @@
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="440"/>
+      <c r="A19" s="442"/>
       <c r="B19" s="36" t="s">
         <v>343</v>
       </c>
@@ -7312,7 +7330,7 @@
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="440"/>
+      <c r="A20" s="442"/>
       <c r="B20" s="36" t="s">
         <v>59</v>
       </c>
@@ -7323,7 +7341,7 @@
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="441" t="s">
+      <c r="A21" s="443" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -7336,7 +7354,7 @@
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="442"/>
+      <c r="A22" s="444"/>
       <c r="B22" s="11" t="s">
         <v>401</v>
       </c>
@@ -7347,7 +7365,7 @@
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="442"/>
+      <c r="A23" s="444"/>
       <c r="B23" s="11" t="s">
         <v>343</v>
       </c>
@@ -7358,7 +7376,7 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="442"/>
+      <c r="A24" s="444"/>
       <c r="B24" s="11" t="s">
         <v>60</v>
       </c>
@@ -7397,7 +7415,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="429" t="s">
+      <c r="A27" s="431" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="59" t="s">
@@ -7410,7 +7428,7 @@
       <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="430"/>
+      <c r="A28" s="432"/>
       <c r="B28" s="59" t="s">
         <v>407</v>
       </c>
@@ -7434,7 +7452,7 @@
       <c r="E29" s="210"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="431" t="s">
+      <c r="A30" s="433" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -7447,7 +7465,7 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="432"/>
+      <c r="A31" s="434"/>
       <c r="B31" s="12" t="s">
         <v>410</v>
       </c>
@@ -7458,7 +7476,7 @@
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="432"/>
+      <c r="A32" s="434"/>
       <c r="B32" s="12" t="s">
         <v>390</v>
       </c>
@@ -7469,7 +7487,7 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="433" t="s">
+      <c r="A33" s="435" t="s">
         <v>556</v>
       </c>
       <c r="B33" s="212" t="s">
@@ -7482,7 +7500,7 @@
       <c r="E33" s="212"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="434"/>
+      <c r="A34" s="436"/>
       <c r="B34" s="212" t="s">
         <v>410</v>
       </c>
@@ -7557,7 +7575,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="363" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="89" t="s">
@@ -7568,7 +7586,7 @@
       <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="384"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="89" t="s">
         <v>297</v>
       </c>
@@ -7577,7 +7595,7 @@
       <c r="E3" s="89"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="384"/>
+      <c r="A4" s="364"/>
       <c r="B4" s="89" t="s">
         <v>249</v>
       </c>
@@ -7586,7 +7604,7 @@
       <c r="E4" s="89"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="384"/>
+      <c r="A5" s="364"/>
       <c r="B5" s="89" t="s">
         <v>309</v>
       </c>
@@ -7597,7 +7615,7 @@
       <c r="E5" s="89"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="384"/>
+      <c r="A6" s="364"/>
       <c r="B6" s="89" t="s">
         <v>359</v>
       </c>
@@ -7608,7 +7626,7 @@
       <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="384"/>
+      <c r="A7" s="364"/>
       <c r="B7" s="89" t="s">
         <v>348</v>
       </c>
@@ -7619,7 +7637,7 @@
       <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="384"/>
+      <c r="A8" s="364"/>
       <c r="B8" s="89" t="s">
         <v>371</v>
       </c>
@@ -7630,7 +7648,7 @@
       <c r="E8" s="89"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="406" t="s">
         <v>300</v>
       </c>
       <c r="B9" s="163" t="s">
@@ -7643,7 +7661,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="407"/>
       <c r="B10" s="163" t="s">
         <v>303</v>
       </c>
@@ -7654,7 +7672,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="407"/>
       <c r="B11" s="163" t="s">
         <v>304</v>
       </c>
@@ -7665,7 +7683,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="393" t="s">
+      <c r="A12" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -7676,7 +7694,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="360"/>
+      <c r="A13" s="346"/>
       <c r="B13" s="22" t="s">
         <v>40</v>
       </c>
@@ -7687,7 +7705,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="360"/>
+      <c r="A14" s="346"/>
       <c r="B14" s="22" t="s">
         <v>411</v>
       </c>
@@ -7698,7 +7716,7 @@
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="360"/>
+      <c r="A15" s="346"/>
       <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
@@ -7709,7 +7727,7 @@
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="360"/>
+      <c r="A16" s="346"/>
       <c r="B16" s="22" t="s">
         <v>412</v>
       </c>
@@ -7720,7 +7738,7 @@
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="360"/>
+      <c r="A17" s="346"/>
       <c r="B17" s="22" t="s">
         <v>41</v>
       </c>
@@ -7731,7 +7749,7 @@
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="360"/>
+      <c r="A18" s="346"/>
       <c r="B18" s="22" t="s">
         <v>413</v>
       </c>
@@ -7742,7 +7760,7 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="339" t="s">
+      <c r="A19" s="353" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="49" t="s">
@@ -7753,7 +7771,7 @@
       <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="340"/>
+      <c r="A20" s="354"/>
       <c r="B20" s="49" t="s">
         <v>309</v>
       </c>
@@ -7764,7 +7782,7 @@
       <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="340"/>
+      <c r="A21" s="354"/>
       <c r="B21" s="49" t="s">
         <v>310</v>
       </c>
@@ -7775,7 +7793,7 @@
       <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="340"/>
+      <c r="A22" s="354"/>
       <c r="B22" s="49" t="s">
         <v>311</v>
       </c>
@@ -7786,7 +7804,7 @@
       <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="340"/>
+      <c r="A23" s="354"/>
       <c r="B23" s="49" t="s">
         <v>312</v>
       </c>
@@ -7797,7 +7815,7 @@
       <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="402" t="s">
+      <c r="A24" s="404" t="s">
         <v>314</v>
       </c>
       <c r="B24" s="164" t="s">
@@ -7808,7 +7826,7 @@
       <c r="E24" s="164"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="403"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="164" t="s">
         <v>316</v>
       </c>
@@ -7817,7 +7835,7 @@
       <c r="E25" s="164"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="403"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="164" t="s">
         <v>317</v>
       </c>
@@ -7837,7 +7855,7 @@
       <c r="E27" s="166"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="329" t="s">
+      <c r="A28" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -7848,7 +7866,7 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="330"/>
+      <c r="A29" s="332"/>
       <c r="B29" s="19" t="s">
         <v>242</v>
       </c>
@@ -7857,7 +7875,7 @@
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="330"/>
+      <c r="A30" s="332"/>
       <c r="B30" s="19" t="s">
         <v>28</v>
       </c>
@@ -7866,7 +7884,7 @@
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="330"/>
+      <c r="A31" s="332"/>
       <c r="B31" s="302" t="s">
         <v>320</v>
       </c>
@@ -7923,7 +7941,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -7934,7 +7952,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+      <c r="A3" s="340"/>
       <c r="B3" s="26" t="s">
         <v>414</v>
       </c>
@@ -7943,7 +7961,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -7956,7 +7974,7 @@
       <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="352"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="53" t="s">
         <v>416</v>
       </c>
@@ -7967,7 +7985,7 @@
       <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="352"/>
+      <c r="A6" s="338"/>
       <c r="B6" s="53" t="s">
         <v>417</v>
       </c>
@@ -7978,7 +7996,7 @@
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="352"/>
+      <c r="A7" s="338"/>
       <c r="B7" s="53" t="s">
         <v>418</v>
       </c>
@@ -7989,7 +8007,7 @@
       <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="352"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="53" t="s">
         <v>419</v>
       </c>
@@ -8000,7 +8018,7 @@
       <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="352"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="53" t="s">
         <v>420</v>
       </c>
@@ -8011,7 +8029,7 @@
       <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="443" t="s">
+      <c r="A10" s="445" t="s">
         <v>421</v>
       </c>
       <c r="B10" s="213" t="s">
@@ -8024,7 +8042,7 @@
       <c r="E10" s="213"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="444"/>
+      <c r="A11" s="446"/>
       <c r="B11" s="213" t="s">
         <v>423</v>
       </c>
@@ -8035,7 +8053,7 @@
       <c r="E11" s="213"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="444"/>
+      <c r="A12" s="446"/>
       <c r="B12" s="213" t="s">
         <v>424</v>
       </c>
@@ -8104,7 +8122,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -8115,7 +8133,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+      <c r="A3" s="340"/>
       <c r="B3" s="26" t="s">
         <v>414</v>
       </c>
@@ -8124,7 +8142,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -8137,7 +8155,7 @@
       <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="352"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="53" t="s">
         <v>416</v>
       </c>
@@ -8148,7 +8166,7 @@
       <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="352"/>
+      <c r="A6" s="338"/>
       <c r="B6" s="53" t="s">
         <v>417</v>
       </c>
@@ -8159,7 +8177,7 @@
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="352"/>
+      <c r="A7" s="338"/>
       <c r="B7" s="53" t="s">
         <v>418</v>
       </c>
@@ -8170,7 +8188,7 @@
       <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="352"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="53" t="s">
         <v>419</v>
       </c>
@@ -8181,7 +8199,7 @@
       <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="352"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="53" t="s">
         <v>420</v>
       </c>
@@ -8205,7 +8223,7 @@
       <c r="E10" s="213"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="445" t="s">
+      <c r="A11" s="447" t="s">
         <v>425</v>
       </c>
       <c r="B11" s="215" t="s">
@@ -8218,7 +8236,7 @@
       <c r="E11" s="215"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="446"/>
+      <c r="A12" s="448"/>
       <c r="B12" s="215" t="s">
         <v>423</v>
       </c>
@@ -8229,7 +8247,7 @@
       <c r="E12" s="215"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="446"/>
+      <c r="A13" s="448"/>
       <c r="B13" s="215" t="s">
         <v>424</v>
       </c>
@@ -8285,7 +8303,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -8298,7 +8316,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="149" t="s">
         <v>427</v>
       </c>
@@ -8331,7 +8349,7 @@
       <c r="E5" s="218"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="353" t="s">
+      <c r="A6" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -8342,7 +8360,7 @@
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="354"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
@@ -8353,7 +8371,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="354"/>
+      <c r="A8" s="340"/>
       <c r="B8" s="26" t="s">
         <v>431</v>
       </c>
@@ -8395,7 +8413,7 @@
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="439" t="s">
+      <c r="A12" s="441" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -8406,7 +8424,7 @@
       <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="440"/>
+      <c r="A13" s="442"/>
       <c r="B13" s="36" t="s">
         <v>59</v>
       </c>
@@ -8415,7 +8433,7 @@
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -8426,7 +8444,7 @@
       <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="358"/>
+      <c r="A15" s="344"/>
       <c r="B15" s="42" t="s">
         <v>10</v>
       </c>
@@ -8481,7 +8499,7 @@
       <c r="E19" s="225"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="447" t="s">
+      <c r="A20" s="449" t="s">
         <v>436</v>
       </c>
       <c r="B20" s="226" t="s">
@@ -8492,7 +8510,7 @@
       <c r="E20" s="226"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="448"/>
+      <c r="A21" s="450"/>
       <c r="B21" s="226" t="s">
         <v>438</v>
       </c>
@@ -8589,7 +8607,7 @@
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="343" t="s">
+      <c r="A30" s="357" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="76" t="s">
@@ -8602,7 +8620,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="344"/>
+      <c r="A31" s="358"/>
       <c r="B31" s="76" t="s">
         <v>20</v>
       </c>
@@ -8613,7 +8631,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="344"/>
+      <c r="A32" s="358"/>
       <c r="B32" s="76" t="s">
         <v>89</v>
       </c>
@@ -8716,7 +8734,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -8729,7 +8747,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="149" t="s">
         <v>427</v>
       </c>
@@ -8740,7 +8758,7 @@
       <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="395"/>
+      <c r="A4" s="397"/>
       <c r="B4" s="149" t="s">
         <v>6</v>
       </c>
@@ -8751,7 +8769,7 @@
       <c r="E4" s="149"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="42" t="s">
@@ -8764,7 +8782,7 @@
       <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="358"/>
+      <c r="A6" s="344"/>
       <c r="B6" s="42" t="s">
         <v>443</v>
       </c>
@@ -8775,7 +8793,7 @@
       <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="358"/>
+      <c r="A7" s="344"/>
       <c r="B7" s="42" t="s">
         <v>239</v>
       </c>
@@ -8786,7 +8804,7 @@
       <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="358"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="42" t="s">
         <v>444</v>
       </c>
@@ -8797,7 +8815,7 @@
       <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="351" t="s">
+      <c r="A9" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -8810,7 +8828,7 @@
       <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="352"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="53" t="s">
         <v>378</v>
       </c>
@@ -8821,7 +8839,7 @@
       <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="352"/>
+      <c r="A11" s="338"/>
       <c r="B11" s="53" t="s">
         <v>445</v>
       </c>
@@ -8832,7 +8850,7 @@
       <c r="E11" s="53"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="352"/>
+      <c r="A12" s="338"/>
       <c r="B12" s="53" t="s">
         <v>325</v>
       </c>
@@ -8843,7 +8861,7 @@
       <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="352"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="53" t="s">
         <v>446</v>
       </c>
@@ -8854,7 +8872,7 @@
       <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="352"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="53" t="s">
         <v>447</v>
       </c>
@@ -8865,7 +8883,7 @@
       <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="352"/>
+      <c r="A15" s="338"/>
       <c r="B15" s="53" t="s">
         <v>448</v>
       </c>
@@ -8876,7 +8894,7 @@
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="335" t="s">
+      <c r="A16" s="349" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -8889,7 +8907,7 @@
       <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="336"/>
+      <c r="A17" s="350"/>
       <c r="B17" s="62" t="s">
         <v>450</v>
       </c>
@@ -8900,7 +8918,7 @@
       <c r="E17" s="62"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="381" t="s">
+      <c r="A18" s="391" t="s">
         <v>147</v>
       </c>
       <c r="B18" s="109" t="s">
@@ -8913,7 +8931,7 @@
       <c r="E18" s="109"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="382"/>
+      <c r="A19" s="392"/>
       <c r="B19" s="109" t="s">
         <v>422</v>
       </c>
@@ -8924,7 +8942,7 @@
       <c r="E19" s="109"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="382"/>
+      <c r="A20" s="392"/>
       <c r="B20" s="109" t="s">
         <v>331</v>
       </c>
@@ -8935,7 +8953,7 @@
       <c r="E20" s="109"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="382"/>
+      <c r="A21" s="392"/>
       <c r="B21" s="109" t="s">
         <v>89</v>
       </c>
@@ -8946,7 +8964,7 @@
       <c r="E21" s="109"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="382"/>
+      <c r="A22" s="392"/>
       <c r="B22" s="109" t="s">
         <v>378</v>
       </c>
@@ -8957,7 +8975,7 @@
       <c r="E22" s="109"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="449" t="s">
+      <c r="A23" s="451" t="s">
         <v>291</v>
       </c>
       <c r="B23" s="159" t="s">
@@ -8970,7 +8988,7 @@
       <c r="E23" s="159"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="450"/>
+      <c r="A24" s="452"/>
       <c r="B24" s="159" t="s">
         <v>422</v>
       </c>
@@ -8981,7 +8999,7 @@
       <c r="E24" s="159"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="450"/>
+      <c r="A25" s="452"/>
       <c r="B25" s="159" t="s">
         <v>331</v>
       </c>
@@ -8992,7 +9010,7 @@
       <c r="E25" s="159"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="450"/>
+      <c r="A26" s="452"/>
       <c r="B26" s="159" t="s">
         <v>89</v>
       </c>
@@ -9003,7 +9021,7 @@
       <c r="E26" s="159"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="450"/>
+      <c r="A27" s="452"/>
       <c r="B27" s="159" t="s">
         <v>378</v>
       </c>
@@ -9014,7 +9032,7 @@
       <c r="E27" s="159"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="451" t="s">
+      <c r="A28" s="453" t="s">
         <v>451</v>
       </c>
       <c r="B28" s="233" t="s">
@@ -9027,7 +9045,7 @@
       <c r="E28" s="233"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="452"/>
+      <c r="A29" s="454"/>
       <c r="B29" s="233" t="s">
         <v>422</v>
       </c>
@@ -9038,7 +9056,7 @@
       <c r="E29" s="233"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="452"/>
+      <c r="A30" s="454"/>
       <c r="B30" s="233" t="s">
         <v>331</v>
       </c>
@@ -9049,7 +9067,7 @@
       <c r="E30" s="233"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="452"/>
+      <c r="A31" s="454"/>
       <c r="B31" s="233" t="s">
         <v>89</v>
       </c>
@@ -9060,7 +9078,7 @@
       <c r="E31" s="233"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="452"/>
+      <c r="A32" s="454"/>
       <c r="B32" s="233" t="s">
         <v>378</v>
       </c>
@@ -9145,7 +9163,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -9158,7 +9176,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="149" t="s">
         <v>427</v>
       </c>
@@ -9169,7 +9187,7 @@
       <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="395"/>
+      <c r="A4" s="397"/>
       <c r="B4" s="149" t="s">
         <v>6</v>
       </c>
@@ -9178,7 +9196,7 @@
       <c r="E4" s="149"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="331" t="s">
+      <c r="A5" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -9189,7 +9207,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="332"/>
+      <c r="A6" s="334"/>
       <c r="B6" s="18" t="s">
         <v>453</v>
       </c>
@@ -9198,7 +9216,7 @@
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="332"/>
+      <c r="A7" s="334"/>
       <c r="B7" s="18" t="s">
         <v>454</v>
       </c>
@@ -9207,7 +9225,7 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="332"/>
+      <c r="A8" s="334"/>
       <c r="B8" s="18" t="s">
         <v>455</v>
       </c>
@@ -9216,7 +9234,7 @@
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="332"/>
+      <c r="A9" s="334"/>
       <c r="B9" s="18" t="s">
         <v>298</v>
       </c>
@@ -9247,7 +9265,7 @@
       <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="329" t="s">
+      <c r="A12" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -9258,7 +9276,7 @@
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="330"/>
+      <c r="A13" s="332"/>
       <c r="B13" s="19" t="s">
         <v>459</v>
       </c>
@@ -9267,7 +9285,7 @@
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="330"/>
+      <c r="A14" s="332"/>
       <c r="B14" s="19" t="s">
         <v>460</v>
       </c>
@@ -9276,7 +9294,7 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="330"/>
+      <c r="A15" s="332"/>
       <c r="B15" s="19" t="s">
         <v>461</v>
       </c>
@@ -9330,7 +9348,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="396" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="149" t="s">
@@ -9343,7 +9361,7 @@
       <c r="E2" s="149"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
+      <c r="A3" s="397"/>
       <c r="B3" s="149" t="s">
         <v>427</v>
       </c>
@@ -9354,7 +9372,7 @@
       <c r="E3" s="149"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="395"/>
+      <c r="A4" s="397"/>
       <c r="B4" s="149" t="s">
         <v>6</v>
       </c>
@@ -9363,7 +9381,7 @@
       <c r="E4" s="149"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="331" t="s">
+      <c r="A5" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -9374,7 +9392,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="332"/>
+      <c r="A6" s="334"/>
       <c r="B6" s="18" t="s">
         <v>453</v>
       </c>
@@ -9383,7 +9401,7 @@
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="332"/>
+      <c r="A7" s="334"/>
       <c r="B7" s="18" t="s">
         <v>454</v>
       </c>
@@ -9392,7 +9410,7 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="332"/>
+      <c r="A8" s="334"/>
       <c r="B8" s="18" t="s">
         <v>455</v>
       </c>
@@ -9401,7 +9419,7 @@
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="332"/>
+      <c r="A9" s="334"/>
       <c r="B9" s="18" t="s">
         <v>298</v>
       </c>
@@ -9410,7 +9428,7 @@
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="393" t="s">
+      <c r="A10" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -9421,7 +9439,7 @@
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="360"/>
+      <c r="A11" s="346"/>
       <c r="B11" s="22" t="s">
         <v>253</v>
       </c>
@@ -9430,7 +9448,7 @@
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="360"/>
+      <c r="A12" s="346"/>
       <c r="B12" s="22" t="s">
         <v>462</v>
       </c>
@@ -9441,7 +9459,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="360"/>
+      <c r="A13" s="346"/>
       <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
@@ -9452,7 +9470,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="360"/>
+      <c r="A14" s="346"/>
       <c r="B14" s="22" t="s">
         <v>109</v>
       </c>
@@ -9463,7 +9481,7 @@
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="406" t="s">
+      <c r="A15" s="408" t="s">
         <v>318</v>
       </c>
       <c r="B15" s="166" t="s">
@@ -9474,7 +9492,7 @@
       <c r="E15" s="166"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="407"/>
+      <c r="A16" s="409"/>
       <c r="B16" s="166" t="s">
         <v>30</v>
       </c>
@@ -9505,7 +9523,7 @@
       <c r="E18" s="79"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="329" t="s">
+      <c r="A19" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -9516,7 +9534,7 @@
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="330"/>
+      <c r="A20" s="332"/>
       <c r="B20" s="19" t="s">
         <v>459</v>
       </c>
@@ -9525,7 +9543,7 @@
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="330"/>
+      <c r="A21" s="332"/>
       <c r="B21" s="19" t="s">
         <v>460</v>
       </c>
@@ -9534,7 +9552,7 @@
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="330"/>
+      <c r="A22" s="332"/>
       <c r="B22" s="19" t="s">
         <v>461</v>
       </c>
@@ -9590,7 +9608,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="455" t="s">
         <v>463</v>
       </c>
       <c r="B2" s="239" t="s">
@@ -9603,7 +9621,7 @@
       <c r="E2" s="239"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="454"/>
+      <c r="A3" s="456"/>
       <c r="B3" s="239" t="s">
         <v>465</v>
       </c>
@@ -9614,7 +9632,7 @@
       <c r="E3" s="239"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="454"/>
+      <c r="A4" s="456"/>
       <c r="B4" s="239" t="s">
         <v>466</v>
       </c>
@@ -9625,7 +9643,7 @@
       <c r="E4" s="239"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="454"/>
+      <c r="A5" s="456"/>
       <c r="B5" s="239" t="s">
         <v>428</v>
       </c>
@@ -9636,7 +9654,7 @@
       <c r="E5" s="239"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="455" t="s">
+      <c r="A6" s="457" t="s">
         <v>467</v>
       </c>
       <c r="B6" s="240" t="s">
@@ -9649,7 +9667,7 @@
       <c r="E6" s="240"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="456"/>
+      <c r="A7" s="458"/>
       <c r="B7" s="240" t="s">
         <v>468</v>
       </c>
@@ -9660,7 +9678,7 @@
       <c r="E7" s="240"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="456"/>
+      <c r="A8" s="458"/>
       <c r="B8" s="240" t="s">
         <v>469</v>
       </c>
@@ -9671,7 +9689,7 @@
       <c r="E8" s="240"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="369" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="93" t="s">
@@ -9684,7 +9702,7 @@
       <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="390"/>
+      <c r="A10" s="370"/>
       <c r="B10" s="93" t="s">
         <v>54</v>
       </c>
@@ -9695,7 +9713,7 @@
       <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="459" t="s">
+      <c r="A11" s="461" t="s">
         <v>287</v>
       </c>
       <c r="B11" s="153" t="s">
@@ -9708,7 +9726,7 @@
       <c r="E11" s="153"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="460"/>
+      <c r="A12" s="462"/>
       <c r="B12" s="153" t="s">
         <v>471</v>
       </c>
@@ -9719,7 +9737,7 @@
       <c r="E12" s="153"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="460"/>
+      <c r="A13" s="462"/>
       <c r="B13" s="153" t="s">
         <v>472</v>
       </c>
@@ -9730,7 +9748,7 @@
       <c r="E13" s="153"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="460"/>
+      <c r="A14" s="462"/>
       <c r="B14" s="153" t="s">
         <v>473</v>
       </c>
@@ -9741,7 +9759,7 @@
       <c r="E14" s="153"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="42" t="s">
@@ -9754,7 +9772,7 @@
       <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="358"/>
+      <c r="A16" s="344"/>
       <c r="B16" s="42" t="s">
         <v>16</v>
       </c>
@@ -9765,7 +9783,7 @@
       <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="358"/>
+      <c r="A17" s="344"/>
       <c r="B17" s="42" t="s">
         <v>475</v>
       </c>
@@ -9776,7 +9794,7 @@
       <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="358"/>
+      <c r="A18" s="344"/>
       <c r="B18" s="42" t="s">
         <v>24</v>
       </c>
@@ -9787,7 +9805,7 @@
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="351" t="s">
+      <c r="A19" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="53" t="s">
@@ -9800,7 +9818,7 @@
       <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="352"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="53" t="s">
         <v>54</v>
       </c>
@@ -9811,7 +9829,7 @@
       <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="352"/>
+      <c r="A21" s="338"/>
       <c r="B21" s="53" t="s">
         <v>464</v>
       </c>
@@ -9822,7 +9840,7 @@
       <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="352"/>
+      <c r="A22" s="338"/>
       <c r="B22" s="53" t="s">
         <v>465</v>
       </c>
@@ -9833,7 +9851,7 @@
       <c r="E22" s="53"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="381" t="s">
+      <c r="A23" s="391" t="s">
         <v>147</v>
       </c>
       <c r="B23" s="109" t="s">
@@ -9846,7 +9864,7 @@
       <c r="E23" s="109"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="382"/>
+      <c r="A24" s="392"/>
       <c r="B24" s="109" t="s">
         <v>476</v>
       </c>
@@ -9857,7 +9875,7 @@
       <c r="E24" s="109"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="457" t="s">
+      <c r="A25" s="459" t="s">
         <v>477</v>
       </c>
       <c r="B25" s="241" t="s">
@@ -9870,7 +9888,7 @@
       <c r="E25" s="241"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="458"/>
+      <c r="A26" s="460"/>
       <c r="B26" s="241" t="s">
         <v>54</v>
       </c>
@@ -9881,7 +9899,7 @@
       <c r="E26" s="241"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="458"/>
+      <c r="A27" s="460"/>
       <c r="B27" s="241" t="s">
         <v>464</v>
       </c>
@@ -9892,7 +9910,7 @@
       <c r="E27" s="241"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="458"/>
+      <c r="A28" s="460"/>
       <c r="B28" s="241" t="s">
         <v>465</v>
       </c>
@@ -9903,7 +9921,7 @@
       <c r="E28" s="241"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="371" t="s">
+      <c r="A29" s="381" t="s">
         <v>158</v>
       </c>
       <c r="B29" s="116" t="s">
@@ -9916,7 +9934,7 @@
       <c r="E29" s="116"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="372"/>
+      <c r="A30" s="382"/>
       <c r="B30" s="116" t="s">
         <v>471</v>
       </c>
@@ -9927,7 +9945,7 @@
       <c r="E30" s="116"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="372"/>
+      <c r="A31" s="382"/>
       <c r="B31" s="116" t="s">
         <v>472</v>
       </c>
@@ -9938,7 +9956,7 @@
       <c r="E31" s="116"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="372"/>
+      <c r="A32" s="382"/>
       <c r="B32" s="116" t="s">
         <v>473</v>
       </c>
@@ -9949,7 +9967,7 @@
       <c r="E32" s="116"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="373" t="s">
+      <c r="A33" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -9962,7 +9980,7 @@
       <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="374"/>
+      <c r="A34" s="384"/>
       <c r="B34" s="17" t="s">
         <v>236</v>
       </c>
@@ -9973,7 +9991,7 @@
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="374"/>
+      <c r="A35" s="384"/>
       <c r="B35" s="17" t="s">
         <v>478</v>
       </c>
@@ -9997,7 +10015,7 @@
       <c r="E36" s="243"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="361" t="s">
+      <c r="A37" s="371" t="s">
         <v>164</v>
       </c>
       <c r="B37" s="118" t="s">
@@ -10010,7 +10028,7 @@
       <c r="E37" s="118"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="362"/>
+      <c r="A38" s="372"/>
       <c r="B38" s="118" t="s">
         <v>54</v>
       </c>
@@ -10021,7 +10039,7 @@
       <c r="E38" s="118"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="362"/>
+      <c r="A39" s="372"/>
       <c r="B39" s="118" t="s">
         <v>464</v>
       </c>
@@ -10032,7 +10050,7 @@
       <c r="E39" s="118"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="362"/>
+      <c r="A40" s="372"/>
       <c r="B40" s="118" t="s">
         <v>465</v>
       </c>
@@ -10043,7 +10061,7 @@
       <c r="E40" s="118"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="362"/>
+      <c r="A41" s="372"/>
       <c r="B41" s="118" t="s">
         <v>466</v>
       </c>
@@ -10107,7 +10125,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -10118,7 +10136,7 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="332"/>
+      <c r="A3" s="334"/>
       <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
@@ -10127,7 +10145,7 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -10138,7 +10156,7 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="330"/>
+      <c r="A5" s="332"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
       </c>
@@ -10147,7 +10165,7 @@
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="330"/>
+      <c r="A6" s="332"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
       </c>
@@ -10156,7 +10174,7 @@
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="330"/>
+      <c r="A7" s="332"/>
       <c r="B7" s="19" t="s">
         <v>33</v>
       </c>
@@ -10209,7 +10227,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -10220,7 +10238,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+      <c r="A3" s="340"/>
       <c r="B3" s="26" t="s">
         <v>115</v>
       </c>
@@ -10229,7 +10247,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="467" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="91" t="s">
@@ -10242,7 +10260,7 @@
       <c r="E4" s="91"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="462"/>
+      <c r="A5" s="468"/>
       <c r="B5" s="91" t="s">
         <v>482</v>
       </c>
@@ -10253,7 +10271,7 @@
       <c r="E5" s="91"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="435" t="s">
+      <c r="A6" s="437" t="s">
         <v>387</v>
       </c>
       <c r="B6" s="203" t="s">
@@ -10266,7 +10284,7 @@
       <c r="E6" s="203"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="436"/>
+      <c r="A7" s="438"/>
       <c r="B7" s="203" t="s">
         <v>482</v>
       </c>
@@ -10277,7 +10295,7 @@
       <c r="E7" s="203"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="387" t="s">
+      <c r="A8" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -10290,7 +10308,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="388"/>
+      <c r="A9" s="368"/>
       <c r="B9" s="10" t="s">
         <v>484</v>
       </c>
@@ -10303,7 +10321,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="10" t="s">
         <v>119</v>
       </c>
@@ -10316,7 +10334,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="385" t="s">
+      <c r="A11" s="365" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="95" t="s">
@@ -10327,7 +10345,7 @@
       <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
+      <c r="A12" s="366"/>
       <c r="B12" s="95" t="s">
         <v>125</v>
       </c>
@@ -10336,7 +10354,7 @@
       <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="439" t="s">
+      <c r="A13" s="441" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -10347,7 +10365,7 @@
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="440"/>
+      <c r="A14" s="442"/>
       <c r="B14" s="36" t="s">
         <v>420</v>
       </c>
@@ -10356,7 +10374,7 @@
       <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="429" t="s">
+      <c r="A15" s="431" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="59" t="s">
@@ -10369,7 +10387,7 @@
       <c r="E15" s="59"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="430"/>
+      <c r="A16" s="432"/>
       <c r="B16" s="59" t="s">
         <v>486</v>
       </c>
@@ -10380,7 +10398,7 @@
       <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="431" t="s">
+      <c r="A17" s="433" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -10391,7 +10409,7 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="432"/>
+      <c r="A18" s="434"/>
       <c r="B18" s="12" t="s">
         <v>487</v>
       </c>
@@ -10402,7 +10420,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="432"/>
+      <c r="A19" s="434"/>
       <c r="B19" s="12" t="s">
         <v>151</v>
       </c>
@@ -10413,7 +10431,7 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="387" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -10424,7 +10442,7 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="378"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="13" t="s">
         <v>487</v>
       </c>
@@ -10435,7 +10453,7 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="378"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="13" t="s">
         <v>151</v>
       </c>
@@ -10494,7 +10512,7 @@
       <c r="E26" s="246"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="369" t="s">
+      <c r="A27" s="379" t="s">
         <v>156</v>
       </c>
       <c r="B27" s="114" t="s">
@@ -10507,7 +10525,7 @@
       <c r="E27" s="114"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="370"/>
+      <c r="A28" s="380"/>
       <c r="B28" s="114" t="s">
         <v>124</v>
       </c>
@@ -10518,7 +10536,7 @@
       <c r="E28" s="114"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="370"/>
+      <c r="A29" s="380"/>
       <c r="B29" s="114" t="s">
         <v>157</v>
       </c>
@@ -10527,7 +10545,7 @@
       <c r="E29" s="114"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="373" t="s">
+      <c r="A30" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -10542,7 +10560,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="374"/>
+      <c r="A31" s="384"/>
       <c r="B31" s="17" t="s">
         <v>129</v>
       </c>
@@ -10555,7 +10573,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="374"/>
+      <c r="A32" s="384"/>
       <c r="B32" s="17" t="s">
         <v>161</v>
       </c>
@@ -10568,7 +10586,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="374"/>
+      <c r="A33" s="384"/>
       <c r="B33" s="17" t="s">
         <v>484</v>
       </c>
@@ -10579,7 +10597,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="374"/>
+      <c r="A34" s="384"/>
       <c r="B34" s="17" t="s">
         <v>415</v>
       </c>
@@ -10590,7 +10608,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="374"/>
+      <c r="A35" s="384"/>
       <c r="B35" s="17" t="s">
         <v>163</v>
       </c>
@@ -10603,7 +10621,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="374"/>
+      <c r="A36" s="384"/>
       <c r="B36" s="17" t="s">
         <v>495</v>
       </c>
@@ -10616,7 +10634,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="374"/>
+      <c r="A37" s="384"/>
       <c r="B37" s="17" t="s">
         <v>496</v>
       </c>
@@ -10629,7 +10647,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="374"/>
+      <c r="A38" s="384"/>
       <c r="B38" s="17" t="s">
         <v>497</v>
       </c>
@@ -10643,6 +10661,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
@@ -10650,12 +10674,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10697,7 +10715,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -10708,7 +10726,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+      <c r="A3" s="340"/>
       <c r="B3" s="26" t="s">
         <v>197</v>
       </c>
@@ -10717,7 +10735,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="467" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="91" t="s">
@@ -10728,7 +10746,7 @@
       <c r="E4" s="91"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="462"/>
+      <c r="A5" s="468"/>
       <c r="B5" s="91" t="s">
         <v>499</v>
       </c>
@@ -10737,7 +10755,7 @@
       <c r="E5" s="91"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="435" t="s">
+      <c r="A6" s="437" t="s">
         <v>387</v>
       </c>
       <c r="B6" s="203" t="s">
@@ -10748,7 +10766,7 @@
       <c r="E6" s="203"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="436"/>
+      <c r="A7" s="438"/>
       <c r="B7" s="203" t="s">
         <v>499</v>
       </c>
@@ -10757,7 +10775,7 @@
       <c r="E7" s="203"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="387" t="s">
+      <c r="A8" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -10770,7 +10788,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="388"/>
+      <c r="A9" s="368"/>
       <c r="B9" s="10" t="s">
         <v>500</v>
       </c>
@@ -10783,7 +10801,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="10" t="s">
         <v>170</v>
       </c>
@@ -10796,7 +10814,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="385" t="s">
+      <c r="A11" s="365" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="95" t="s">
@@ -10807,7 +10825,7 @@
       <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
+      <c r="A12" s="366"/>
       <c r="B12" s="95" t="s">
         <v>499</v>
       </c>
@@ -10827,7 +10845,7 @@
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="431" t="s">
+      <c r="A14" s="433" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -10838,7 +10856,7 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="432"/>
+      <c r="A15" s="434"/>
       <c r="B15" s="12" t="s">
         <v>501</v>
       </c>
@@ -10849,7 +10867,7 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="432"/>
+      <c r="A16" s="434"/>
       <c r="B16" s="12" t="s">
         <v>502</v>
       </c>
@@ -10860,7 +10878,7 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="377" t="s">
+      <c r="A17" s="387" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -10871,7 +10889,7 @@
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="378"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="13" t="s">
         <v>501</v>
       </c>
@@ -10882,7 +10900,7 @@
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="378"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="13" t="s">
         <v>502</v>
       </c>
@@ -10961,7 +10979,7 @@
       <c r="E25" s="244"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="467" t="s">
+      <c r="A26" s="469" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -10974,7 +10992,7 @@
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="468"/>
+      <c r="A27" s="470"/>
       <c r="B27" s="15" t="s">
         <v>167</v>
       </c>
@@ -10985,7 +11003,7 @@
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="468"/>
+      <c r="A28" s="470"/>
       <c r="B28" s="15" t="s">
         <v>174</v>
       </c>
@@ -10994,7 +11012,7 @@
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="369" t="s">
+      <c r="A29" s="379" t="s">
         <v>156</v>
       </c>
       <c r="B29" s="114" t="s">
@@ -11005,7 +11023,7 @@
       <c r="E29" s="114"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="370"/>
+      <c r="A30" s="380"/>
       <c r="B30" s="114" t="s">
         <v>500</v>
       </c>
@@ -11016,7 +11034,7 @@
       <c r="E30" s="114"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="370"/>
+      <c r="A31" s="380"/>
       <c r="B31" s="114" t="s">
         <v>170</v>
       </c>
@@ -11027,7 +11045,7 @@
       <c r="E31" s="114"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="373" t="s">
+      <c r="A32" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -11042,7 +11060,7 @@
       <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="374"/>
+      <c r="A33" s="384"/>
       <c r="B33" s="17" t="s">
         <v>200</v>
       </c>
@@ -11055,7 +11073,7 @@
       <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="374"/>
+      <c r="A34" s="384"/>
       <c r="B34" s="17" t="s">
         <v>508</v>
       </c>
@@ -11068,7 +11086,7 @@
       <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="374"/>
+      <c r="A35" s="384"/>
       <c r="B35" s="17" t="s">
         <v>500</v>
       </c>
@@ -11081,7 +11099,7 @@
       <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="374"/>
+      <c r="A36" s="384"/>
       <c r="B36" s="17" t="s">
         <v>509</v>
       </c>
@@ -11092,7 +11110,7 @@
       <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="374"/>
+      <c r="A37" s="384"/>
       <c r="B37" s="17" t="s">
         <v>201</v>
       </c>
@@ -11105,7 +11123,7 @@
       <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="374"/>
+      <c r="A38" s="384"/>
       <c r="B38" s="17" t="s">
         <v>202</v>
       </c>
@@ -11118,7 +11136,7 @@
       <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="374"/>
+      <c r="A39" s="384"/>
       <c r="B39" s="17" t="s">
         <v>510</v>
       </c>
@@ -11131,7 +11149,7 @@
       <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="374"/>
+      <c r="A40" s="384"/>
       <c r="B40" s="17" t="s">
         <v>511</v>
       </c>
@@ -11145,17 +11163,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11197,7 +11215,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -11210,7 +11228,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+      <c r="A3" s="340"/>
       <c r="B3" s="26" t="s">
         <v>212</v>
       </c>
@@ -11221,7 +11239,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="354"/>
+      <c r="A4" s="340"/>
       <c r="B4" s="26" t="s">
         <v>205</v>
       </c>
@@ -11232,7 +11250,7 @@
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="354"/>
+      <c r="A5" s="340"/>
       <c r="B5" s="26" t="s">
         <v>206</v>
       </c>
@@ -11243,7 +11261,7 @@
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="354"/>
+      <c r="A6" s="340"/>
       <c r="B6" s="26" t="s">
         <v>512</v>
       </c>
@@ -11254,7 +11272,7 @@
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="354"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="26" t="s">
         <v>513</v>
       </c>
@@ -11265,7 +11283,7 @@
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="354"/>
+      <c r="A8" s="340"/>
       <c r="B8" s="26" t="s">
         <v>514</v>
       </c>
@@ -11276,7 +11294,7 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="435" t="s">
+      <c r="A9" s="437" t="s">
         <v>387</v>
       </c>
       <c r="B9" s="203" t="s">
@@ -11287,7 +11305,7 @@
       <c r="E9" s="203"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="436"/>
+      <c r="A10" s="438"/>
       <c r="B10" s="203" t="s">
         <v>516</v>
       </c>
@@ -11298,7 +11316,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
+      <c r="A11" s="438"/>
       <c r="B11" s="203" t="s">
         <v>518</v>
       </c>
@@ -11309,7 +11327,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="387" t="s">
+      <c r="A12" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -11322,7 +11340,7 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
+      <c r="A13" s="368"/>
       <c r="B13" s="10" t="s">
         <v>520</v>
       </c>
@@ -11333,7 +11351,7 @@
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="368"/>
       <c r="B14" s="10" t="s">
         <v>521</v>
       </c>
@@ -11344,7 +11362,7 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="368"/>
       <c r="B15" s="10" t="s">
         <v>208</v>
       </c>
@@ -11355,7 +11373,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="385" t="s">
+      <c r="A16" s="365" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="95" t="s">
@@ -11366,7 +11384,7 @@
       <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="386"/>
+      <c r="A17" s="366"/>
       <c r="B17" s="95" t="s">
         <v>518</v>
       </c>
@@ -11375,7 +11393,7 @@
       <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="439" t="s">
+      <c r="A18" s="441" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="36" t="s">
@@ -11386,7 +11404,7 @@
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="440"/>
+      <c r="A19" s="442"/>
       <c r="B19" s="36" t="s">
         <v>420</v>
       </c>
@@ -11395,7 +11413,7 @@
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="431" t="s">
+      <c r="A20" s="433" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -11406,7 +11424,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="432"/>
+      <c r="A21" s="434"/>
       <c r="B21" s="12" t="s">
         <v>522</v>
       </c>
@@ -11415,7 +11433,7 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="432"/>
+      <c r="A22" s="434"/>
       <c r="B22" s="12" t="s">
         <v>227</v>
       </c>
@@ -11424,7 +11442,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="377" t="s">
+      <c r="A23" s="387" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -11435,7 +11453,7 @@
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="378"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="13" t="s">
         <v>522</v>
       </c>
@@ -11444,7 +11462,7 @@
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="378"/>
+      <c r="A25" s="388"/>
       <c r="B25" s="13" t="s">
         <v>227</v>
       </c>
@@ -11532,7 +11550,7 @@
       <c r="E32" s="246"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="467" t="s">
+      <c r="A33" s="469" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -11543,7 +11561,7 @@
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="468"/>
+      <c r="A34" s="470"/>
       <c r="B34" s="15" t="s">
         <v>213</v>
       </c>
@@ -11552,7 +11570,7 @@
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="369" t="s">
+      <c r="A35" s="379" t="s">
         <v>156</v>
       </c>
       <c r="B35" s="114" t="s">
@@ -11563,7 +11581,7 @@
       <c r="E35" s="114"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="370"/>
+      <c r="A36" s="380"/>
       <c r="B36" s="114" t="s">
         <v>521</v>
       </c>
@@ -11574,7 +11592,7 @@
       <c r="E36" s="114"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="370"/>
+      <c r="A37" s="380"/>
       <c r="B37" s="114" t="s">
         <v>208</v>
       </c>
@@ -11585,7 +11603,7 @@
       <c r="E37" s="114"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="373" t="s">
+      <c r="A38" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -11600,7 +11618,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="374"/>
+      <c r="A39" s="384"/>
       <c r="B39" s="17" t="s">
         <v>524</v>
       </c>
@@ -11613,7 +11631,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="374"/>
+      <c r="A40" s="384"/>
       <c r="B40" s="17" t="s">
         <v>293</v>
       </c>
@@ -11626,7 +11644,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="374"/>
+      <c r="A41" s="384"/>
       <c r="B41" s="17" t="s">
         <v>525</v>
       </c>
@@ -11639,7 +11657,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="374"/>
+      <c r="A42" s="384"/>
       <c r="B42" s="17" t="s">
         <v>521</v>
       </c>
@@ -11650,7 +11668,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="374"/>
+      <c r="A43" s="384"/>
       <c r="B43" s="17" t="s">
         <v>526</v>
       </c>
@@ -11661,7 +11679,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="374"/>
+      <c r="A44" s="384"/>
       <c r="B44" s="17" t="s">
         <v>294</v>
       </c>
@@ -11672,7 +11690,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="374"/>
+      <c r="A45" s="384"/>
       <c r="B45" s="17" t="s">
         <v>527</v>
       </c>
@@ -11685,7 +11703,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="374"/>
+      <c r="A46" s="384"/>
       <c r="B46" s="17" t="s">
         <v>233</v>
       </c>
@@ -11698,7 +11716,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="374"/>
+      <c r="A47" s="384"/>
       <c r="B47" s="17" t="s">
         <v>234</v>
       </c>
@@ -11711,7 +11729,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="374"/>
+      <c r="A48" s="384"/>
       <c r="B48" s="17" t="s">
         <v>528</v>
       </c>
@@ -11724,7 +11742,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="374"/>
+      <c r="A49" s="384"/>
       <c r="B49" s="17" t="s">
         <v>529</v>
       </c>
@@ -11735,7 +11753,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="374"/>
+      <c r="A50" s="384"/>
       <c r="B50" s="17" t="s">
         <v>295</v>
       </c>
@@ -11812,7 +11830,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="469" t="s">
+      <c r="A2" s="471" t="s">
         <v>463</v>
       </c>
       <c r="B2" s="247" t="s">
@@ -11823,7 +11841,7 @@
       <c r="E2" s="247"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="454"/>
+      <c r="A3" s="456"/>
       <c r="B3" s="247" t="s">
         <v>531</v>
       </c>
@@ -11843,7 +11861,7 @@
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="400" t="s">
+      <c r="A5" s="402" t="s">
         <v>284</v>
       </c>
       <c r="B5" s="151" t="s">
@@ -11854,7 +11872,7 @@
       <c r="E5" s="151"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="401"/>
+      <c r="A6" s="403"/>
       <c r="B6" s="151" t="s">
         <v>531</v>
       </c>
@@ -11863,7 +11881,7 @@
       <c r="E6" s="151"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="357" t="s">
+      <c r="A7" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -11874,7 +11892,7 @@
       <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="358"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="42" t="s">
         <v>532</v>
       </c>
@@ -11883,7 +11901,7 @@
       <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="351" t="s">
+      <c r="A9" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -11894,7 +11912,7 @@
       <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="352"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="53" t="s">
         <v>531</v>
       </c>
@@ -11947,7 +11965,7 @@
       <c r="E14" s="255"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="453" t="s">
+      <c r="A15" s="455" t="s">
         <v>537</v>
       </c>
       <c r="B15" s="239" t="s">
@@ -11958,7 +11976,7 @@
       <c r="E15" s="256"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="454"/>
+      <c r="A16" s="456"/>
       <c r="B16" s="239" t="s">
         <v>538</v>
       </c>
@@ -11967,7 +11985,7 @@
       <c r="E16" s="256"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="361" t="s">
+      <c r="A17" s="371" t="s">
         <v>164</v>
       </c>
       <c r="B17" s="118" t="s">
@@ -11978,7 +11996,7 @@
       <c r="E17" s="118"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="362"/>
+      <c r="A18" s="372"/>
       <c r="B18" s="118" t="s">
         <v>531</v>
       </c>
@@ -12036,7 +12054,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="455" t="s">
         <v>463</v>
       </c>
       <c r="B2" s="247" t="s">
@@ -12047,7 +12065,7 @@
       <c r="E2" s="247"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="454"/>
+      <c r="A3" s="456"/>
       <c r="B3" s="247" t="s">
         <v>539</v>
       </c>
@@ -12056,7 +12074,7 @@
       <c r="E3" s="247"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="354" t="s">
+      <c r="A4" s="340" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="257" t="s">
@@ -12067,7 +12085,7 @@
       <c r="E4" s="257"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="400" t="s">
+      <c r="A5" s="402" t="s">
         <v>284</v>
       </c>
       <c r="B5" s="151" t="s">
@@ -12078,7 +12096,7 @@
       <c r="E5" s="151"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="401"/>
+      <c r="A6" s="403"/>
       <c r="B6" s="151" t="s">
         <v>539</v>
       </c>
@@ -12087,7 +12105,7 @@
       <c r="E6" s="151"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="357" t="s">
+      <c r="A7" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -12098,7 +12116,7 @@
       <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="358"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="42" t="s">
         <v>540</v>
       </c>
@@ -12107,7 +12125,7 @@
       <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="351" t="s">
+      <c r="A9" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -12118,7 +12136,7 @@
       <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="352"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="53" t="s">
         <v>539</v>
       </c>
@@ -12149,7 +12167,7 @@
       <c r="E12" s="251"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="470" t="s">
+      <c r="A13" s="472" t="s">
         <v>536</v>
       </c>
       <c r="B13" s="253" t="s">
@@ -12160,7 +12178,7 @@
       <c r="E13" s="253"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="471" t="s">
+      <c r="A14" s="473" t="s">
         <v>553</v>
       </c>
       <c r="B14" s="255" t="s">
@@ -12171,7 +12189,7 @@
       <c r="E14" s="255"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="453" t="s">
+      <c r="A15" s="455" t="s">
         <v>537</v>
       </c>
       <c r="B15" s="239" t="s">
@@ -12182,7 +12200,7 @@
       <c r="E15" s="256"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="454"/>
+      <c r="A16" s="456"/>
       <c r="B16" s="239" t="s">
         <v>541</v>
       </c>
@@ -12191,7 +12209,7 @@
       <c r="E16" s="256"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="361" t="s">
+      <c r="A17" s="371" t="s">
         <v>164</v>
       </c>
       <c r="B17" s="118" t="s">
@@ -12202,7 +12220,7 @@
       <c r="E17" s="258"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="362"/>
+      <c r="A18" s="372"/>
       <c r="B18" s="118" t="s">
         <v>539</v>
       </c>
@@ -12263,7 +12281,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="455" t="s">
         <v>463</v>
       </c>
       <c r="B2" s="247" t="s">
@@ -12274,7 +12292,7 @@
       <c r="E2" s="247"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="454"/>
+      <c r="A3" s="456"/>
       <c r="B3" s="247" t="s">
         <v>539</v>
       </c>
@@ -12294,7 +12312,7 @@
       <c r="E4" s="257"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="400" t="s">
+      <c r="A5" s="402" t="s">
         <v>284</v>
       </c>
       <c r="B5" s="151" t="s">
@@ -12305,7 +12323,7 @@
       <c r="E5" s="151"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="401"/>
+      <c r="A6" s="403"/>
       <c r="B6" s="151" t="s">
         <v>542</v>
       </c>
@@ -12314,7 +12332,7 @@
       <c r="E6" s="151"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="357" t="s">
+      <c r="A7" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -12325,7 +12343,7 @@
       <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="358"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="42" t="s">
         <v>544</v>
       </c>
@@ -12334,7 +12352,7 @@
       <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="351" t="s">
+      <c r="A9" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -12345,7 +12363,7 @@
       <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="352"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="53" t="s">
         <v>542</v>
       </c>
@@ -12398,7 +12416,7 @@
       <c r="E14" s="255"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="453" t="s">
+      <c r="A15" s="455" t="s">
         <v>537</v>
       </c>
       <c r="B15" s="239" t="s">
@@ -12409,7 +12427,7 @@
       <c r="E15" s="256"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="454"/>
+      <c r="A16" s="456"/>
       <c r="B16" s="239" t="s">
         <v>546</v>
       </c>
@@ -12418,7 +12436,7 @@
       <c r="E16" s="256"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="361" t="s">
+      <c r="A17" s="371" t="s">
         <v>164</v>
       </c>
       <c r="B17" s="118" t="s">
@@ -12429,7 +12447,7 @@
       <c r="E17" s="258"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="362"/>
+      <c r="A18" s="372"/>
       <c r="B18" s="118" t="s">
         <v>542</v>
       </c>
@@ -12487,7 +12505,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -12498,7 +12516,7 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="332"/>
+      <c r="A3" s="334"/>
       <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
@@ -12507,7 +12525,7 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="332"/>
+      <c r="A4" s="334"/>
       <c r="B4" s="18" t="s">
         <v>36</v>
       </c>
@@ -12516,7 +12534,7 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="332"/>
+      <c r="A5" s="334"/>
       <c r="B5" s="18" t="s">
         <v>37</v>
       </c>
@@ -12525,7 +12543,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="345" t="s">
         <v>550</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -12536,7 +12554,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="360"/>
+      <c r="A7" s="346"/>
       <c r="B7" s="22" t="s">
         <v>39</v>
       </c>
@@ -12545,7 +12563,7 @@
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="360"/>
+      <c r="A8" s="346"/>
       <c r="B8" s="22" t="s">
         <v>40</v>
       </c>
@@ -12554,7 +12572,7 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="360"/>
+      <c r="A9" s="346"/>
       <c r="B9" s="22" t="s">
         <v>41</v>
       </c>
@@ -12563,7 +12581,7 @@
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="349" t="s">
+      <c r="A10" s="335" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -12574,7 +12592,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="350"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
@@ -12583,7 +12601,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="353" t="s">
+      <c r="A12" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -12594,7 +12612,7 @@
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="354"/>
+      <c r="A13" s="340"/>
       <c r="B13" s="26" t="s">
         <v>45</v>
       </c>
@@ -12649,7 +12667,7 @@
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="355" t="s">
+      <c r="A18" s="341" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -12660,7 +12678,7 @@
       <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="356"/>
+      <c r="A19" s="342"/>
       <c r="B19" s="38" t="s">
         <v>55</v>
       </c>
@@ -12680,7 +12698,7 @@
       <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="357" t="s">
+      <c r="A21" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="42" t="s">
@@ -12691,7 +12709,7 @@
       <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="358"/>
+      <c r="A22" s="344"/>
       <c r="B22" s="42" t="s">
         <v>60</v>
       </c>
@@ -12700,7 +12718,7 @@
       <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="358"/>
+      <c r="A23" s="344"/>
       <c r="B23" s="42" t="s">
         <v>61</v>
       </c>
@@ -12709,7 +12727,7 @@
       <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="358"/>
+      <c r="A24" s="344"/>
       <c r="B24" s="42" t="s">
         <v>62</v>
       </c>
@@ -12718,7 +12736,7 @@
       <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="358"/>
+      <c r="A25" s="344"/>
       <c r="B25" s="42" t="s">
         <v>63</v>
       </c>
@@ -12727,7 +12745,7 @@
       <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="358"/>
+      <c r="A26" s="344"/>
       <c r="B26" s="42" t="s">
         <v>55</v>
       </c>
@@ -12760,7 +12778,7 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="339" t="s">
+      <c r="A29" s="353" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="49" t="s">
@@ -12771,7 +12789,7 @@
       <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="340"/>
+      <c r="A30" s="354"/>
       <c r="B30" s="49" t="s">
         <v>67</v>
       </c>
@@ -12780,7 +12798,7 @@
       <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="340"/>
+      <c r="A31" s="354"/>
       <c r="B31" s="49" t="s">
         <v>68</v>
       </c>
@@ -12800,7 +12818,7 @@
       <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="351" t="s">
+      <c r="A33" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="53" t="s">
@@ -12811,7 +12829,7 @@
       <c r="E33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="352"/>
+      <c r="A34" s="338"/>
       <c r="B34" s="53" t="s">
         <v>72</v>
       </c>
@@ -12820,7 +12838,7 @@
       <c r="E34" s="53"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="352"/>
+      <c r="A35" s="338"/>
       <c r="B35" s="53" t="s">
         <v>73</v>
       </c>
@@ -12829,7 +12847,7 @@
       <c r="E35" s="53"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="341" t="s">
+      <c r="A36" s="355" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="55" t="s">
@@ -12840,7 +12858,7 @@
       <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="342"/>
+      <c r="A37" s="356"/>
       <c r="B37" s="55" t="s">
         <v>75</v>
       </c>
@@ -12849,7 +12867,7 @@
       <c r="E37" s="55"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="333" t="s">
+      <c r="A38" s="347" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="57" t="s">
@@ -12860,7 +12878,7 @@
       <c r="E38" s="57"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="334"/>
+      <c r="A39" s="348"/>
       <c r="B39" s="57" t="s">
         <v>77</v>
       </c>
@@ -12869,7 +12887,7 @@
       <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="334"/>
+      <c r="A40" s="348"/>
       <c r="B40" s="57" t="s">
         <v>78</v>
       </c>
@@ -12889,7 +12907,7 @@
       <c r="E41" s="59"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="335" t="s">
+      <c r="A42" s="349" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="62" t="s">
@@ -12900,7 +12918,7 @@
       <c r="E42" s="62"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="336"/>
+      <c r="A43" s="350"/>
       <c r="B43" s="62" t="s">
         <v>83</v>
       </c>
@@ -12933,7 +12951,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="345" t="s">
+      <c r="A46" s="359" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="68" t="s">
@@ -12944,7 +12962,7 @@
       <c r="E46" s="68"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="346"/>
+      <c r="A47" s="360"/>
       <c r="B47" s="68" t="s">
         <v>90</v>
       </c>
@@ -12953,7 +12971,7 @@
       <c r="E47" s="68"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="347" t="s">
+      <c r="A48" s="361" t="s">
         <v>91</v>
       </c>
       <c r="B48" s="71" t="s">
@@ -12964,7 +12982,7 @@
       <c r="E48" s="71"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="348"/>
+      <c r="A49" s="362"/>
       <c r="B49" s="71" t="s">
         <v>93</v>
       </c>
@@ -12973,7 +12991,7 @@
       <c r="E49" s="71"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="348"/>
+      <c r="A50" s="362"/>
       <c r="B50" s="71" t="s">
         <v>94</v>
       </c>
@@ -13006,7 +13024,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="343" t="s">
+      <c r="A53" s="357" t="s">
         <v>96</v>
       </c>
       <c r="B53" s="76" t="s">
@@ -13019,7 +13037,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="344"/>
+      <c r="A54" s="358"/>
       <c r="B54" s="76" t="s">
         <v>98</v>
       </c>
@@ -13052,7 +13070,7 @@
       <c r="E56" s="79"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="329" t="s">
+      <c r="A57" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -13063,7 +13081,7 @@
       <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="330"/>
+      <c r="A58" s="332"/>
       <c r="B58" s="19" t="s">
         <v>103</v>
       </c>
@@ -13072,7 +13090,7 @@
       <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="330"/>
+      <c r="A59" s="332"/>
       <c r="B59" s="19" t="s">
         <v>104</v>
       </c>
@@ -13081,7 +13099,7 @@
       <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="330"/>
+      <c r="A60" s="332"/>
       <c r="B60" s="19" t="s">
         <v>105</v>
       </c>
@@ -13101,7 +13119,7 @@
       <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="337" t="s">
+      <c r="A62" s="351" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="83" t="s">
@@ -13112,7 +13130,7 @@
       <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="338"/>
+      <c r="A63" s="352"/>
       <c r="B63" s="83" t="s">
         <v>107</v>
       </c>
@@ -13121,7 +13139,7 @@
       <c r="E63" s="83"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="338"/>
+      <c r="A64" s="352"/>
       <c r="B64" s="83" t="s">
         <v>67</v>
       </c>
@@ -13155,13 +13173,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A6:A9"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A62:A64"/>
@@ -13171,6 +13182,13 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
@@ -13182,7 +13200,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -13213,7 +13231,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="363" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="89" t="s">
@@ -13224,7 +13242,7 @@
       <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="384"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="89" t="s">
         <v>113</v>
       </c>
@@ -13233,7 +13251,7 @@
       <c r="E3" s="89"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -13244,7 +13262,7 @@
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="354"/>
+      <c r="A5" s="340"/>
       <c r="B5" s="26" t="s">
         <v>115</v>
       </c>
@@ -13264,7 +13282,7 @@
       <c r="E6" s="91"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="387" t="s">
+      <c r="A7" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -13275,7 +13293,7 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="388"/>
+      <c r="A8" s="368"/>
       <c r="B8" s="10" t="s">
         <v>119</v>
       </c>
@@ -13284,7 +13302,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="369" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="93" t="s">
@@ -13295,7 +13313,7 @@
       <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="390"/>
+      <c r="A10" s="370"/>
       <c r="B10" s="93" t="s">
         <v>122</v>
       </c>
@@ -13304,7 +13322,7 @@
       <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="385" t="s">
+      <c r="A11" s="365" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="95" t="s">
@@ -13315,7 +13333,7 @@
       <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
+      <c r="A12" s="366"/>
       <c r="B12" s="95" t="s">
         <v>125</v>
       </c>
@@ -13335,7 +13353,7 @@
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="363" t="s">
+      <c r="A14" s="373" t="s">
         <v>127</v>
       </c>
       <c r="B14" s="97" t="s">
@@ -13346,7 +13364,7 @@
       <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="364"/>
+      <c r="A15" s="374"/>
       <c r="B15" s="97" t="s">
         <v>128</v>
       </c>
@@ -13355,7 +13373,7 @@
       <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="355" t="s">
+      <c r="A16" s="341" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -13366,7 +13384,7 @@
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="356"/>
+      <c r="A17" s="342"/>
       <c r="B17" s="38" t="s">
         <v>130</v>
       </c>
@@ -13375,7 +13393,7 @@
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="356"/>
+      <c r="A18" s="342"/>
       <c r="B18" s="38" t="s">
         <v>131</v>
       </c>
@@ -13384,7 +13402,7 @@
       <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="357" t="s">
+      <c r="A19" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="42" t="s">
@@ -13395,7 +13413,7 @@
       <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="358"/>
+      <c r="A20" s="344"/>
       <c r="B20" s="42" t="s">
         <v>133</v>
       </c>
@@ -13415,7 +13433,7 @@
       <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="379" t="s">
+      <c r="A22" s="389" t="s">
         <v>135</v>
       </c>
       <c r="B22" s="99" t="s">
@@ -13426,7 +13444,7 @@
       <c r="E22" s="99"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="380"/>
+      <c r="A23" s="390"/>
       <c r="B23" s="99" t="s">
         <v>137</v>
       </c>
@@ -13435,7 +13453,7 @@
       <c r="E23" s="99"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="351" t="s">
+      <c r="A24" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="53" t="s">
@@ -13446,7 +13464,7 @@
       <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="352"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="53" t="s">
         <v>139</v>
       </c>
@@ -13455,7 +13473,7 @@
       <c r="E25" s="53"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="365" t="s">
+      <c r="A26" s="375" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="101" t="s">
@@ -13466,7 +13484,7 @@
       <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="366"/>
+      <c r="A27" s="376"/>
       <c r="B27" s="101" t="s">
         <v>133</v>
       </c>
@@ -13512,7 +13530,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="381" t="s">
+      <c r="A31" s="391" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="109" t="s">
@@ -13525,7 +13543,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="382"/>
+      <c r="A32" s="392"/>
       <c r="B32" s="109" t="s">
         <v>149</v>
       </c>
@@ -13536,7 +13554,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="377" t="s">
+      <c r="A33" s="387" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -13547,7 +13565,7 @@
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="378"/>
+      <c r="A34" s="388"/>
       <c r="B34" s="13" t="s">
         <v>151</v>
       </c>
@@ -13556,7 +13574,7 @@
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="367" t="s">
+      <c r="A35" s="377" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="79" t="s">
@@ -13567,7 +13585,7 @@
       <c r="E35" s="79"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="368"/>
+      <c r="A36" s="378"/>
       <c r="B36" s="79" t="s">
         <v>115</v>
       </c>
@@ -13576,7 +13594,7 @@
       <c r="E36" s="79"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="329" t="s">
+      <c r="A37" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -13587,7 +13605,7 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="330"/>
+      <c r="A38" s="332"/>
       <c r="B38" s="19" t="s">
         <v>128</v>
       </c>
@@ -13596,7 +13614,7 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="375" t="s">
+      <c r="A39" s="385" t="s">
         <v>153</v>
       </c>
       <c r="B39" s="112" t="s">
@@ -13607,7 +13625,7 @@
       <c r="E39" s="112"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="376"/>
+      <c r="A40" s="386"/>
       <c r="B40" s="112" t="s">
         <v>155</v>
       </c>
@@ -13616,7 +13634,7 @@
       <c r="E40" s="112"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="369" t="s">
+      <c r="A41" s="379" t="s">
         <v>156</v>
       </c>
       <c r="B41" s="114" t="s">
@@ -13627,7 +13645,7 @@
       <c r="E41" s="114"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="370"/>
+      <c r="A42" s="380"/>
       <c r="B42" s="114" t="s">
         <v>157</v>
       </c>
@@ -13636,7 +13654,7 @@
       <c r="E42" s="114"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="371" t="s">
+      <c r="A43" s="381" t="s">
         <v>158</v>
       </c>
       <c r="B43" s="116" t="s">
@@ -13647,7 +13665,7 @@
       <c r="E43" s="116"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="372"/>
+      <c r="A44" s="382"/>
       <c r="B44" s="116" t="s">
         <v>160</v>
       </c>
@@ -13656,7 +13674,7 @@
       <c r="E44" s="116"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="373" t="s">
+      <c r="A45" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -13667,7 +13685,7 @@
       <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="374"/>
+      <c r="A46" s="384"/>
       <c r="B46" s="17" t="s">
         <v>162</v>
       </c>
@@ -13676,7 +13694,7 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="374"/>
+      <c r="A47" s="384"/>
       <c r="B47" s="17" t="s">
         <v>163</v>
       </c>
@@ -13685,7 +13703,7 @@
       <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="361" t="s">
+      <c r="A48" s="371" t="s">
         <v>164</v>
       </c>
       <c r="B48" s="118" t="s">
@@ -13696,7 +13714,7 @@
       <c r="E48" s="118"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="362"/>
+      <c r="A49" s="372"/>
       <c r="B49" s="118" t="s">
         <v>166</v>
       </c>
@@ -13706,11 +13724,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
@@ -13726,6 +13739,11 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
@@ -13768,7 +13786,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -13779,7 +13797,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+      <c r="A3" s="340"/>
       <c r="B3" s="26" t="s">
         <v>168</v>
       </c>
@@ -13788,7 +13806,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="387" t="s">
+      <c r="A4" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -13799,7 +13817,7 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="388"/>
+      <c r="A5" s="368"/>
       <c r="B5" s="10" t="s">
         <v>170</v>
       </c>
@@ -13808,7 +13826,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="383" t="s">
+      <c r="A6" s="363" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="89" t="s">
@@ -13819,7 +13837,7 @@
       <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="384"/>
+      <c r="A7" s="364"/>
       <c r="B7" s="89" t="s">
         <v>172</v>
       </c>
@@ -13828,7 +13846,7 @@
       <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="389" t="s">
+      <c r="A8" s="369" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="93" t="s">
@@ -13839,7 +13857,7 @@
       <c r="E8" s="93"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="390"/>
+      <c r="A9" s="370"/>
       <c r="B9" s="93" t="s">
         <v>173</v>
       </c>
@@ -13848,7 +13866,7 @@
       <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="385" t="s">
+      <c r="A10" s="365" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="95" t="s">
@@ -13859,7 +13877,7 @@
       <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
+      <c r="A11" s="366"/>
       <c r="B11" s="95" t="s">
         <v>174</v>
       </c>
@@ -13879,7 +13897,7 @@
       <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="363" t="s">
+      <c r="A13" s="373" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="97" t="s">
@@ -13890,7 +13908,7 @@
       <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="364"/>
+      <c r="A14" s="374"/>
       <c r="B14" s="97" t="s">
         <v>176</v>
       </c>
@@ -13899,7 +13917,7 @@
       <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="355" t="s">
+      <c r="A15" s="341" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -13910,7 +13928,7 @@
       <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="356"/>
+      <c r="A16" s="342"/>
       <c r="B16" s="38" t="s">
         <v>178</v>
       </c>
@@ -13919,7 +13937,7 @@
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="356"/>
+      <c r="A17" s="342"/>
       <c r="B17" s="38" t="s">
         <v>179</v>
       </c>
@@ -13928,7 +13946,7 @@
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="357" t="s">
+      <c r="A18" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="42" t="s">
@@ -13939,7 +13957,7 @@
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="358"/>
+      <c r="A19" s="344"/>
       <c r="B19" s="42" t="s">
         <v>181</v>
       </c>
@@ -13959,7 +13977,7 @@
       <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="379" t="s">
+      <c r="A21" s="389" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="99" t="s">
@@ -13970,7 +13988,7 @@
       <c r="E21" s="99"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="380"/>
+      <c r="A22" s="390"/>
       <c r="B22" s="99" t="s">
         <v>183</v>
       </c>
@@ -13979,7 +13997,7 @@
       <c r="E22" s="99"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="351" t="s">
+      <c r="A23" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="53" t="s">
@@ -13990,7 +14008,7 @@
       <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="352"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="53" t="s">
         <v>184</v>
       </c>
@@ -13999,7 +14017,7 @@
       <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="365" t="s">
+      <c r="A25" s="375" t="s">
         <v>140</v>
       </c>
       <c r="B25" s="101" t="s">
@@ -14010,7 +14028,7 @@
       <c r="E25" s="101"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="366"/>
+      <c r="A26" s="376"/>
       <c r="B26" s="101" t="s">
         <v>181</v>
       </c>
@@ -14056,7 +14074,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="381" t="s">
+      <c r="A30" s="391" t="s">
         <v>147</v>
       </c>
       <c r="B30" s="109" t="s">
@@ -14069,7 +14087,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="382"/>
+      <c r="A31" s="392"/>
       <c r="B31" s="109" t="s">
         <v>189</v>
       </c>
@@ -14080,7 +14098,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="377" t="s">
+      <c r="A32" s="387" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -14091,7 +14109,7 @@
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="378"/>
+      <c r="A33" s="388"/>
       <c r="B33" s="13" t="s">
         <v>191</v>
       </c>
@@ -14100,7 +14118,7 @@
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="367" t="s">
+      <c r="A34" s="377" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="79" t="s">
@@ -14111,7 +14129,7 @@
       <c r="E34" s="79"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="368"/>
+      <c r="A35" s="378"/>
       <c r="B35" s="79" t="s">
         <v>193</v>
       </c>
@@ -14120,7 +14138,7 @@
       <c r="E35" s="79"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="329" t="s">
+      <c r="A36" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -14131,7 +14149,7 @@
       <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="330"/>
+      <c r="A37" s="332"/>
       <c r="B37" s="19" t="s">
         <v>176</v>
       </c>
@@ -14140,7 +14158,7 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="375" t="s">
+      <c r="A38" s="385" t="s">
         <v>153</v>
       </c>
       <c r="B38" s="112" t="s">
@@ -14151,7 +14169,7 @@
       <c r="E38" s="112"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="376"/>
+      <c r="A39" s="386"/>
       <c r="B39" s="112" t="s">
         <v>195</v>
       </c>
@@ -14160,7 +14178,7 @@
       <c r="E39" s="112"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="376"/>
+      <c r="A40" s="386"/>
       <c r="B40" s="112" t="s">
         <v>196</v>
       </c>
@@ -14169,7 +14187,7 @@
       <c r="E40" s="112"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="369" t="s">
+      <c r="A41" s="379" t="s">
         <v>156</v>
       </c>
       <c r="B41" s="114" t="s">
@@ -14180,7 +14198,7 @@
       <c r="E41" s="114"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="370"/>
+      <c r="A42" s="380"/>
       <c r="B42" s="114" t="s">
         <v>197</v>
       </c>
@@ -14189,7 +14207,7 @@
       <c r="E42" s="114"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="371" t="s">
+      <c r="A43" s="381" t="s">
         <v>158</v>
       </c>
       <c r="B43" s="116" t="s">
@@ -14200,7 +14218,7 @@
       <c r="E43" s="116"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="372"/>
+      <c r="A44" s="382"/>
       <c r="B44" s="116" t="s">
         <v>199</v>
       </c>
@@ -14209,7 +14227,7 @@
       <c r="E44" s="116"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="373" t="s">
+      <c r="A45" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -14220,7 +14238,7 @@
       <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="374"/>
+      <c r="A46" s="384"/>
       <c r="B46" s="17" t="s">
         <v>201</v>
       </c>
@@ -14229,7 +14247,7 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="374"/>
+      <c r="A47" s="384"/>
       <c r="B47" s="17" t="s">
         <v>202</v>
       </c>
@@ -14238,7 +14256,7 @@
       <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="337" t="s">
+      <c r="A48" s="351" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="83" t="s">
@@ -14249,7 +14267,7 @@
       <c r="E48" s="83"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="338"/>
+      <c r="A49" s="352"/>
       <c r="B49" s="83" t="s">
         <v>203</v>
       </c>
@@ -14258,7 +14276,7 @@
       <c r="E49" s="83"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="361" t="s">
+      <c r="A50" s="371" t="s">
         <v>164</v>
       </c>
       <c r="B50" s="118" t="s">
@@ -14269,7 +14287,7 @@
       <c r="E50" s="118"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="362"/>
+      <c r="A51" s="372"/>
       <c r="B51" s="118" t="s">
         <v>204</v>
       </c>
@@ -14279,6 +14297,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -14290,16 +14318,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14341,7 +14359,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="339" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -14352,7 +14370,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="354"/>
+      <c r="A3" s="340"/>
       <c r="B3" s="26" t="s">
         <v>206</v>
       </c>
@@ -14361,7 +14379,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="387" t="s">
+      <c r="A4" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -14372,7 +14390,7 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="388"/>
+      <c r="A5" s="368"/>
       <c r="B5" s="10" t="s">
         <v>208</v>
       </c>
@@ -14381,7 +14399,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="383" t="s">
+      <c r="A6" s="363" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="89" t="s">
@@ -14392,7 +14410,7 @@
       <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="384"/>
+      <c r="A7" s="364"/>
       <c r="B7" s="89" t="s">
         <v>210</v>
       </c>
@@ -14401,7 +14419,7 @@
       <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="389" t="s">
+      <c r="A8" s="369" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="93" t="s">
@@ -14412,7 +14430,7 @@
       <c r="E8" s="93"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="390"/>
+      <c r="A9" s="370"/>
       <c r="B9" s="93" t="s">
         <v>211</v>
       </c>
@@ -14421,7 +14439,7 @@
       <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="385" t="s">
+      <c r="A10" s="365" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="95" t="s">
@@ -14432,7 +14450,7 @@
       <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
+      <c r="A11" s="366"/>
       <c r="B11" s="95" t="s">
         <v>213</v>
       </c>
@@ -14452,7 +14470,7 @@
       <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="363" t="s">
+      <c r="A13" s="373" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="97" t="s">
@@ -14463,7 +14481,7 @@
       <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="364"/>
+      <c r="A14" s="374"/>
       <c r="B14" s="97" t="s">
         <v>214</v>
       </c>
@@ -14472,7 +14490,7 @@
       <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="355" t="s">
+      <c r="A15" s="341" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="38" t="s">
@@ -14483,7 +14501,7 @@
       <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="356"/>
+      <c r="A16" s="342"/>
       <c r="B16" s="38" t="s">
         <v>215</v>
       </c>
@@ -14492,7 +14510,7 @@
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="356"/>
+      <c r="A17" s="342"/>
       <c r="B17" s="38" t="s">
         <v>216</v>
       </c>
@@ -14501,7 +14519,7 @@
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="357" t="s">
+      <c r="A18" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="42" t="s">
@@ -14512,7 +14530,7 @@
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="358"/>
+      <c r="A19" s="344"/>
       <c r="B19" s="42" t="s">
         <v>218</v>
       </c>
@@ -14532,7 +14550,7 @@
       <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="379" t="s">
+      <c r="A21" s="389" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="99" t="s">
@@ -14543,7 +14561,7 @@
       <c r="E21" s="99"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="380"/>
+      <c r="A22" s="390"/>
       <c r="B22" s="99" t="s">
         <v>220</v>
       </c>
@@ -14552,7 +14570,7 @@
       <c r="E22" s="99"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="351" t="s">
+      <c r="A23" s="337" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="53" t="s">
@@ -14563,7 +14581,7 @@
       <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="352"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="53" t="s">
         <v>221</v>
       </c>
@@ -14572,7 +14590,7 @@
       <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="365" t="s">
+      <c r="A25" s="375" t="s">
         <v>140</v>
       </c>
       <c r="B25" s="101" t="s">
@@ -14583,7 +14601,7 @@
       <c r="E25" s="101"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="366"/>
+      <c r="A26" s="376"/>
       <c r="B26" s="101" t="s">
         <v>218</v>
       </c>
@@ -14629,7 +14647,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="381" t="s">
+      <c r="A30" s="391" t="s">
         <v>147</v>
       </c>
       <c r="B30" s="109" t="s">
@@ -14642,7 +14660,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="382"/>
+      <c r="A31" s="392"/>
       <c r="B31" s="109" t="s">
         <v>226</v>
       </c>
@@ -14653,7 +14671,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="377" t="s">
+      <c r="A32" s="387" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -14664,7 +14682,7 @@
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="378"/>
+      <c r="A33" s="388"/>
       <c r="B33" s="13" t="s">
         <v>227</v>
       </c>
@@ -14673,7 +14691,7 @@
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="367" t="s">
+      <c r="A34" s="377" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="79" t="s">
@@ -14684,7 +14702,7 @@
       <c r="E34" s="79"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="368"/>
+      <c r="A35" s="378"/>
       <c r="B35" s="79" t="s">
         <v>228</v>
       </c>
@@ -14693,7 +14711,7 @@
       <c r="E35" s="79"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="329" t="s">
+      <c r="A36" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -14704,7 +14722,7 @@
       <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="330"/>
+      <c r="A37" s="332"/>
       <c r="B37" s="19" t="s">
         <v>214</v>
       </c>
@@ -14713,7 +14731,7 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="375" t="s">
+      <c r="A38" s="385" t="s">
         <v>153</v>
       </c>
       <c r="B38" s="112" t="s">
@@ -14724,7 +14742,7 @@
       <c r="E38" s="112"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="376"/>
+      <c r="A39" s="386"/>
       <c r="B39" s="112" t="s">
         <v>230</v>
       </c>
@@ -14733,7 +14751,7 @@
       <c r="E39" s="112"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="369" t="s">
+      <c r="A40" s="379" t="s">
         <v>156</v>
       </c>
       <c r="B40" s="114" t="s">
@@ -14744,7 +14762,7 @@
       <c r="E40" s="114"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="370"/>
+      <c r="A41" s="380"/>
       <c r="B41" s="114" t="s">
         <v>213</v>
       </c>
@@ -14753,7 +14771,7 @@
       <c r="E41" s="114"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="371" t="s">
+      <c r="A42" s="381" t="s">
         <v>158</v>
       </c>
       <c r="B42" s="116" t="s">
@@ -14764,7 +14782,7 @@
       <c r="E42" s="116"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="372"/>
+      <c r="A43" s="382"/>
       <c r="B43" s="116" t="s">
         <v>232</v>
       </c>
@@ -14773,7 +14791,7 @@
       <c r="E43" s="116"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="373" t="s">
+      <c r="A44" s="383" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -14784,7 +14802,7 @@
       <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="374"/>
+      <c r="A45" s="384"/>
       <c r="B45" s="17" t="s">
         <v>233</v>
       </c>
@@ -14793,7 +14811,7 @@
       <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="374"/>
+      <c r="A46" s="384"/>
       <c r="B46" s="17" t="s">
         <v>234</v>
       </c>
@@ -14802,7 +14820,7 @@
       <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="337" t="s">
+      <c r="A47" s="351" t="s">
         <v>106</v>
       </c>
       <c r="B47" s="83" t="s">
@@ -14813,7 +14831,7 @@
       <c r="E47" s="83"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="338"/>
+      <c r="A48" s="352"/>
       <c r="B48" s="83" t="s">
         <v>235</v>
       </c>
@@ -14822,7 +14840,7 @@
       <c r="E48" s="83"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="361" t="s">
+      <c r="A49" s="371" t="s">
         <v>164</v>
       </c>
       <c r="B49" s="118" t="s">
@@ -14833,7 +14851,7 @@
       <c r="E49" s="118"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="362"/>
+      <c r="A50" s="372"/>
       <c r="B50" s="118" t="s">
         <v>237</v>
       </c>
@@ -14843,6 +14861,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -14854,16 +14882,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14905,7 +14923,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="387" t="s">
+      <c r="A2" s="367" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -14916,7 +14934,7 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="388"/>
+      <c r="A3" s="368"/>
       <c r="B3" s="10" t="s">
         <v>238</v>
       </c>
@@ -14936,7 +14954,7 @@
       <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="343" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="42" t="s">
@@ -14947,7 +14965,7 @@
       <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="358"/>
+      <c r="A6" s="344"/>
       <c r="B6" s="42" t="s">
         <v>240</v>
       </c>
@@ -14956,7 +14974,7 @@
       <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="358"/>
+      <c r="A7" s="344"/>
       <c r="B7" s="42" t="s">
         <v>241</v>
       </c>
@@ -14965,7 +14983,7 @@
       <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="358"/>
+      <c r="A8" s="344"/>
       <c r="B8" s="42" t="s">
         <v>242</v>
       </c>
@@ -14974,7 +14992,7 @@
       <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="391" t="s">
+      <c r="A9" s="393" t="s">
         <v>243</v>
       </c>
       <c r="B9" s="147" t="s">
@@ -14985,7 +15003,7 @@
       <c r="E9" s="147"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="392"/>
+      <c r="A10" s="394"/>
       <c r="B10" s="147" t="s">
         <v>244</v>
       </c>
@@ -14994,7 +15012,7 @@
       <c r="E10" s="147"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="392"/>
+      <c r="A11" s="394"/>
       <c r="B11" s="147" t="s">
         <v>245</v>
       </c>
@@ -15103,7 +15121,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="333" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -15114,7 +15132,7 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="332"/>
+      <c r="A3" s="334"/>
       <c r="B3" s="18" t="s">
         <v>250</v>
       </c>
@@ -15123,7 +15141,7 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="332"/>
+      <c r="A4" s="334"/>
       <c r="B4" s="18" t="s">
         <v>251</v>
       </c>
@@ -15132,7 +15150,7 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="395" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -15143,7 +15161,7 @@
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="360"/>
+      <c r="A6" s="346"/>
       <c r="B6" s="22" t="s">
         <v>253</v>
       </c>
@@ -15152,7 +15170,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="333" t="s">
+      <c r="A7" s="347" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="57" t="s">
@@ -15165,7 +15183,7 @@
       <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="334"/>
+      <c r="A8" s="348"/>
       <c r="B8" s="57" t="s">
         <v>255</v>
       </c>
@@ -15176,7 +15194,7 @@
       <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="334"/>
+      <c r="A9" s="348"/>
       <c r="B9" s="57" t="s">
         <v>256</v>
       </c>
@@ -15185,7 +15203,7 @@
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="334"/>
+      <c r="A10" s="348"/>
       <c r="B10" s="57" t="s">
         <v>257</v>
       </c>
@@ -15194,7 +15212,7 @@
       <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="334"/>
+      <c r="A11" s="348"/>
       <c r="B11" s="57" t="s">
         <v>258</v>
       </c>
@@ -15203,7 +15221,7 @@
       <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="334"/>
+      <c r="A12" s="348"/>
       <c r="B12" s="57" t="s">
         <v>259</v>
       </c>
@@ -15212,7 +15230,7 @@
       <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="335" t="s">
+      <c r="A13" s="349" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -15225,7 +15243,7 @@
       <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="336"/>
+      <c r="A14" s="350"/>
       <c r="B14" s="62" t="s">
         <v>261</v>
       </c>
@@ -15236,7 +15254,7 @@
       <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="336"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="62" t="s">
         <v>255</v>
       </c>
@@ -15247,7 +15265,7 @@
       <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="336"/>
+      <c r="A16" s="350"/>
       <c r="B16" s="62" t="s">
         <v>262</v>
       </c>
@@ -15258,7 +15276,7 @@
       <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="367" t="s">
+      <c r="A17" s="377" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="79" t="s">
@@ -15269,7 +15287,7 @@
       <c r="E17" s="79"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="368"/>
+      <c r="A18" s="378"/>
       <c r="B18" s="79" t="s">
         <v>263</v>
       </c>
@@ -15278,7 +15296,7 @@
       <c r="E18" s="79"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="368"/>
+      <c r="A19" s="378"/>
       <c r="B19" s="79" t="s">
         <v>264</v>
       </c>
@@ -15287,7 +15305,7 @@
       <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="329" t="s">
+      <c r="A20" s="331" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -15298,7 +15316,7 @@
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="330"/>
+      <c r="A21" s="332"/>
       <c r="B21" s="19" t="s">
         <v>266</v>
       </c>
@@ -15307,7 +15325,7 @@
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="330"/>
+      <c r="A22" s="332"/>
       <c r="B22" s="19" t="s">
         <v>28</v>
       </c>
@@ -15316,7 +15334,7 @@
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="330"/>
+      <c r="A23" s="332"/>
       <c r="B23" s="19" t="s">
         <v>242</v>
       </c>
@@ -15325,7 +15343,7 @@
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="330"/>
+      <c r="A24" s="332"/>
       <c r="B24" s="19" t="s">
         <v>267</v>
       </c>
